--- a/MVandebroek/TAKEN/ATSTAT-TASKS/TASK1/1.FILES/overallgrades_all_taak1.xlsx
+++ b/MVandebroek/TAKEN/ATSTAT-TASKS/TASK1/1.FILES/overallgrades_all_taak1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/leonard_maaya_kuleuven_be1/Documents/ATSTAT-TASKS/TASK1/1.FILES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_138A9DCD8F79A8D366075C52F37BD272FAC42213" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{776F7CA3-4155-4B0A-87F8-5AF63163B59C}"/>
+  <xr:revisionPtr revIDLastSave="240" documentId="11_329A9DCD8F79A8D366075C52F37BD2725AC264DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A0941F-FD8E-4B45-A257-4B5A9ECE4746}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,27 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Y$358</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$358</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2518" uniqueCount="1345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="1347">
   <si>
     <t>User.Name</t>
   </si>
@@ -4058,6 +4071,12 @@
   </si>
   <si>
     <t>2023-10-19 16:12:58</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -4081,12 +4100,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4101,11 +4126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4444,15 +4472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y358"/>
+  <dimension ref="A1:Z358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M215" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K360" sqref="K360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4529,7 +4557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4593,8 +4621,11 @@
       <c r="Y2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z2" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4671,7 +4702,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -4748,7 +4779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4813,7 +4844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -4884,7 +4915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4949,7 +4980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -5014,7 +5045,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -5091,7 +5122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -5168,7 +5199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -5245,7 +5276,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -5310,7 +5341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -5353,8 +5384,8 @@
       <c r="N13">
         <v>23.02</v>
       </c>
-      <c r="O13">
-        <v>0</v>
+      <c r="O13" s="3">
+        <v>0.75</v>
       </c>
       <c r="P13">
         <v>15</v>
@@ -5377,14 +5408,14 @@
       <c r="W13">
         <v>1</v>
       </c>
-      <c r="X13">
-        <v>2</v>
+      <c r="X13" s="3">
+        <v>2.75</v>
       </c>
       <c r="Y13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -5461,7 +5492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -5538,7 +5569,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -5569,8 +5600,8 @@
       <c r="J16">
         <v>86631.657000000007</v>
       </c>
-      <c r="K16">
-        <v>0</v>
+      <c r="K16" s="3">
+        <v>1</v>
       </c>
       <c r="L16">
         <v>11</v>
@@ -5590,8 +5621,8 @@
       <c r="Q16">
         <v>1</v>
       </c>
-      <c r="R16">
-        <v>1</v>
+      <c r="R16" t="s">
+        <v>1345</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -5608,8 +5639,8 @@
       <c r="W16">
         <v>1</v>
       </c>
-      <c r="X16">
-        <v>3</v>
+      <c r="X16" s="3">
+        <v>4</v>
       </c>
       <c r="Y16" t="s">
         <v>41</v>
@@ -6300,8 +6331,8 @@
       <c r="N26">
         <v>5.9059999999999997</v>
       </c>
-      <c r="O26">
-        <v>0</v>
+      <c r="O26" s="3">
+        <v>0.75</v>
       </c>
       <c r="P26">
         <v>13</v>
@@ -6327,8 +6358,8 @@
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26">
-        <v>2</v>
+      <c r="X26" s="3">
+        <v>2.75</v>
       </c>
       <c r="Y26" t="s">
         <v>41</v>
@@ -7647,8 +7678,8 @@
       <c r="J44">
         <v>47489.495000000003</v>
       </c>
-      <c r="K44">
-        <v>0</v>
+      <c r="K44" s="3">
+        <v>1</v>
       </c>
       <c r="L44">
         <v>9</v>
@@ -7659,8 +7690,8 @@
       <c r="N44">
         <v>8.4480000000000004</v>
       </c>
-      <c r="O44">
-        <v>0</v>
+      <c r="O44" s="3">
+        <v>1</v>
       </c>
       <c r="P44">
         <v>13</v>
@@ -7686,8 +7717,8 @@
       <c r="W44">
         <v>1</v>
       </c>
-      <c r="X44">
-        <v>1</v>
+      <c r="X44" s="3">
+        <v>3</v>
       </c>
       <c r="Y44" t="s">
         <v>41</v>
@@ -7736,8 +7767,8 @@
       <c r="N45">
         <v>0.42699999999999999</v>
       </c>
-      <c r="O45">
-        <v>0</v>
+      <c r="O45" s="3">
+        <v>0.75</v>
       </c>
       <c r="P45">
         <v>13</v>
@@ -7763,8 +7794,8 @@
       <c r="W45">
         <v>1</v>
       </c>
-      <c r="X45">
-        <v>3</v>
+      <c r="X45" s="3">
+        <v>3.75</v>
       </c>
       <c r="Y45" t="s">
         <v>41</v>
@@ -8020,8 +8051,8 @@
       <c r="N49">
         <v>12.884</v>
       </c>
-      <c r="O49">
-        <v>0</v>
+      <c r="O49" s="3">
+        <v>0.75</v>
       </c>
       <c r="P49">
         <v>15</v>
@@ -8047,8 +8078,8 @@
       <c r="W49">
         <v>0</v>
       </c>
-      <c r="X49">
-        <v>2</v>
+      <c r="X49" s="3">
+        <v>2.75</v>
       </c>
       <c r="Y49" t="s">
         <v>41</v>
@@ -8280,26 +8311,26 @@
       <c r="H53">
         <v>4</v>
       </c>
-      <c r="I53">
-        <v>2.7E-2</v>
+      <c r="I53" s="3">
+        <v>86335.37</v>
       </c>
       <c r="J53">
         <v>86335.370999999999</v>
       </c>
-      <c r="K53">
-        <v>0</v>
+      <c r="K53" s="3">
+        <v>1</v>
       </c>
       <c r="L53">
         <v>10</v>
       </c>
-      <c r="M53">
-        <v>86335.37</v>
+      <c r="M53" s="3">
+        <v>2.7E-2</v>
       </c>
       <c r="N53">
         <v>2.7E-2</v>
       </c>
-      <c r="O53">
-        <v>0</v>
+      <c r="O53" s="3">
+        <v>1</v>
       </c>
       <c r="P53">
         <v>15</v>
@@ -8325,8 +8356,8 @@
       <c r="W53">
         <v>1</v>
       </c>
-      <c r="X53">
-        <v>2</v>
+      <c r="X53" s="3">
+        <v>4</v>
       </c>
       <c r="Y53" t="s">
         <v>41</v>
@@ -10033,8 +10064,8 @@
       <c r="N76">
         <v>2.7959999999999998</v>
       </c>
-      <c r="O76">
-        <v>0</v>
+      <c r="O76" s="3">
+        <v>0.75</v>
       </c>
       <c r="P76">
         <v>13</v>
@@ -10060,8 +10091,8 @@
       <c r="W76">
         <v>1</v>
       </c>
-      <c r="X76">
-        <v>3</v>
+      <c r="X76" s="3">
+        <v>3.75</v>
       </c>
       <c r="Y76" t="s">
         <v>41</v>
@@ -10098,20 +10129,20 @@
       <c r="J77">
         <v>49126.55</v>
       </c>
-      <c r="K77">
-        <v>0</v>
+      <c r="K77" s="3">
+        <v>0.5</v>
       </c>
       <c r="L77">
         <v>8</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="4">
         <v>3933</v>
       </c>
       <c r="N77">
         <v>3.9329999999999998</v>
       </c>
-      <c r="O77">
-        <v>0</v>
+      <c r="O77" s="3">
+        <v>1</v>
       </c>
       <c r="P77">
         <v>16</v>
@@ -10137,8 +10168,8 @@
       <c r="W77">
         <v>1</v>
       </c>
-      <c r="X77">
-        <v>1</v>
+      <c r="X77" s="3">
+        <v>2.5</v>
       </c>
       <c r="Y77" t="s">
         <v>41</v>
@@ -10483,8 +10514,8 @@
       <c r="N82">
         <v>9.68</v>
       </c>
-      <c r="O82">
-        <v>0</v>
+      <c r="O82" s="3">
+        <v>0.25</v>
       </c>
       <c r="P82">
         <v>16</v>
@@ -10510,8 +10541,8 @@
       <c r="W82">
         <v>1</v>
       </c>
-      <c r="X82">
-        <v>3</v>
+      <c r="X82" s="3">
+        <v>3.25</v>
       </c>
       <c r="Y82" t="s">
         <v>41</v>
@@ -11928,8 +11959,8 @@
       <c r="N101">
         <v>30.457999999999998</v>
       </c>
-      <c r="O101">
-        <v>0</v>
+      <c r="O101" s="3">
+        <v>1</v>
       </c>
       <c r="P101">
         <v>15</v>
@@ -11955,8 +11986,8 @@
       <c r="W101">
         <v>0</v>
       </c>
-      <c r="X101">
-        <v>2</v>
+      <c r="X101" s="3">
+        <v>3</v>
       </c>
       <c r="Y101" t="s">
         <v>41</v>
@@ -12742,8 +12773,8 @@
       <c r="N112">
         <v>3.4489999999999998</v>
       </c>
-      <c r="O112">
-        <v>0</v>
+      <c r="O112" s="3">
+        <v>0.75</v>
       </c>
       <c r="P112">
         <v>14</v>
@@ -12769,8 +12800,8 @@
       <c r="W112">
         <v>0</v>
       </c>
-      <c r="X112">
-        <v>2</v>
+      <c r="X112" s="3">
+        <v>2.75</v>
       </c>
       <c r="Y112" t="s">
         <v>41</v>
@@ -13180,8 +13211,8 @@
       <c r="N118">
         <v>20.550999999999998</v>
       </c>
-      <c r="O118">
-        <v>0</v>
+      <c r="O118" s="3">
+        <v>0.25</v>
       </c>
       <c r="P118">
         <v>14</v>
@@ -13207,8 +13238,8 @@
       <c r="W118">
         <v>0</v>
       </c>
-      <c r="X118">
-        <v>1</v>
+      <c r="X118" s="3">
+        <v>1.25</v>
       </c>
       <c r="Y118" t="s">
         <v>41</v>
@@ -13257,8 +13288,8 @@
       <c r="N119">
         <v>10.901</v>
       </c>
-      <c r="O119">
-        <v>0</v>
+      <c r="O119" s="3">
+        <v>0.75</v>
       </c>
       <c r="P119">
         <v>14</v>
@@ -13284,8 +13315,8 @@
       <c r="W119">
         <v>1</v>
       </c>
-      <c r="X119">
-        <v>3</v>
+      <c r="X119" s="3">
+        <v>3.75</v>
       </c>
       <c r="Y119" t="s">
         <v>41</v>
@@ -13895,10 +13926,10 @@
         <v>0</v>
       </c>
       <c r="W127">
-        <v>0</v>
-      </c>
-      <c r="X127">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="X127" s="3">
+        <v>4</v>
       </c>
       <c r="Y127" t="s">
         <v>41</v>
@@ -14859,8 +14890,8 @@
       <c r="N140">
         <v>194.05500000000001</v>
       </c>
-      <c r="O140">
-        <v>0</v>
+      <c r="O140" s="3">
+        <v>0.75</v>
       </c>
       <c r="P140">
         <v>16</v>
@@ -14886,8 +14917,8 @@
       <c r="W140">
         <v>0</v>
       </c>
-      <c r="X140">
-        <v>2</v>
+      <c r="X140" s="3">
+        <v>2.75</v>
       </c>
       <c r="Y140" t="s">
         <v>41</v>
@@ -15081,8 +15112,8 @@
       <c r="N143">
         <v>1.2490000000000001</v>
       </c>
-      <c r="O143">
-        <v>0</v>
+      <c r="O143" s="3">
+        <v>0.75</v>
       </c>
       <c r="P143">
         <v>13</v>
@@ -15108,8 +15139,8 @@
       <c r="W143">
         <v>0</v>
       </c>
-      <c r="X143">
-        <v>2</v>
+      <c r="X143" s="3">
+        <v>2.75</v>
       </c>
       <c r="Y143" t="s">
         <v>41</v>
@@ -17204,8 +17235,8 @@
       <c r="N171">
         <v>86.067999999999998</v>
       </c>
-      <c r="O171">
-        <v>0</v>
+      <c r="O171" s="3">
+        <v>0.75</v>
       </c>
       <c r="P171">
         <v>13</v>
@@ -17231,8 +17262,8 @@
       <c r="W171">
         <v>1</v>
       </c>
-      <c r="X171">
-        <v>3</v>
+      <c r="X171" s="3">
+        <v>3.75</v>
       </c>
       <c r="Y171" t="s">
         <v>41</v>
@@ -20052,8 +20083,8 @@
       <c r="J209">
         <v>45621.792000000001</v>
       </c>
-      <c r="K209">
-        <v>0</v>
+      <c r="K209" s="3">
+        <v>0.5</v>
       </c>
       <c r="L209">
         <v>8</v>
@@ -20091,8 +20122,8 @@
       <c r="W209">
         <v>1</v>
       </c>
-      <c r="X209">
-        <v>2</v>
+      <c r="X209" s="3">
+        <v>2.5</v>
       </c>
       <c r="Y209" t="s">
         <v>41</v>
@@ -23908,11 +23939,11 @@
       <c r="V259">
         <v>0</v>
       </c>
-      <c r="W259">
-        <v>0</v>
-      </c>
-      <c r="X259">
-        <v>2</v>
+      <c r="W259" s="3">
+        <v>1</v>
+      </c>
+      <c r="X259" s="3">
+        <v>3</v>
       </c>
       <c r="Y259" t="s">
         <v>41</v>
@@ -25379,8 +25410,8 @@
       <c r="N279">
         <v>1.7370000000000001</v>
       </c>
-      <c r="O279">
-        <v>0</v>
+      <c r="O279" s="3">
+        <v>0.75</v>
       </c>
       <c r="P279">
         <v>13</v>
@@ -25406,8 +25437,8 @@
       <c r="W279">
         <v>1</v>
       </c>
-      <c r="X279">
-        <v>2</v>
+      <c r="X279" s="3">
+        <v>2.75</v>
       </c>
       <c r="Y279" t="s">
         <v>41</v>
@@ -25456,8 +25487,8 @@
       <c r="N280">
         <v>64.605000000000004</v>
       </c>
-      <c r="O280">
-        <v>0</v>
+      <c r="O280" s="3">
+        <v>0.75</v>
       </c>
       <c r="P280">
         <v>15</v>
@@ -25483,8 +25514,8 @@
       <c r="W280">
         <v>0</v>
       </c>
-      <c r="X280">
-        <v>1</v>
+      <c r="X280" s="3">
+        <v>1.75</v>
       </c>
       <c r="Y280" t="s">
         <v>41</v>
@@ -25610,8 +25641,8 @@
       <c r="N282">
         <v>144.54900000000001</v>
       </c>
-      <c r="O282">
-        <v>0</v>
+      <c r="O282" s="3">
+        <v>0.75</v>
       </c>
       <c r="P282">
         <v>13</v>
@@ -25637,8 +25668,8 @@
       <c r="W282">
         <v>1</v>
       </c>
-      <c r="X282">
-        <v>3</v>
+      <c r="X282" s="3">
+        <v>3.75</v>
       </c>
       <c r="Y282" t="s">
         <v>41</v>
@@ -25841,8 +25872,8 @@
       <c r="N285">
         <v>91.828000000000003</v>
       </c>
-      <c r="O285">
-        <v>0</v>
+      <c r="O285" s="3">
+        <v>0.75</v>
       </c>
       <c r="P285">
         <v>13</v>
@@ -25868,8 +25899,8 @@
       <c r="W285">
         <v>1</v>
       </c>
-      <c r="X285">
-        <v>3</v>
+      <c r="X285" s="3">
+        <v>3.75</v>
       </c>
       <c r="Y285" t="s">
         <v>41</v>
@@ -27203,8 +27234,8 @@
       <c r="N303">
         <v>25.608000000000001</v>
       </c>
-      <c r="O303">
-        <v>0</v>
+      <c r="O303" s="3">
+        <v>0.75</v>
       </c>
       <c r="P303">
         <v>16</v>
@@ -27230,8 +27261,8 @@
       <c r="W303">
         <v>1</v>
       </c>
-      <c r="X303">
-        <v>3</v>
+      <c r="X303" s="3">
+        <v>3.75</v>
       </c>
       <c r="Y303" t="s">
         <v>41</v>
@@ -28843,8 +28874,8 @@
       <c r="N325">
         <v>102.509</v>
       </c>
-      <c r="O325">
-        <v>0</v>
+      <c r="O325" s="3">
+        <v>0.25</v>
       </c>
       <c r="P325">
         <v>15</v>
@@ -28870,8 +28901,8 @@
       <c r="W325">
         <v>0</v>
       </c>
-      <c r="X325">
-        <v>2</v>
+      <c r="X325" s="3">
+        <v>2.25</v>
       </c>
       <c r="Y325" t="s">
         <v>41</v>
@@ -30619,11 +30650,11 @@
       <c r="V349">
         <v>0</v>
       </c>
-      <c r="W349">
-        <v>0</v>
-      </c>
-      <c r="X349">
-        <v>2</v>
+      <c r="W349" s="2">
+        <v>1</v>
+      </c>
+      <c r="X349" s="2">
+        <v>3</v>
       </c>
       <c r="Y349" t="s">
         <v>41</v>
@@ -31255,8 +31286,8 @@
       <c r="N358">
         <v>0.04</v>
       </c>
-      <c r="O358">
-        <v>0</v>
+      <c r="O358" s="3">
+        <v>0.25</v>
       </c>
       <c r="P358">
         <v>15</v>
@@ -31282,15 +31313,16 @@
       <c r="W358">
         <v>1</v>
       </c>
-      <c r="X358">
-        <v>3</v>
+      <c r="X358" s="3">
+        <v>3.25</v>
       </c>
       <c r="Y358" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y358" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Z358" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MVandebroek/TAKEN/ATSTAT-TASKS/TASK1/1.FILES/overallgrades_all_taak1.xlsx
+++ b/MVandebroek/TAKEN/ATSTAT-TASKS/TASK1/1.FILES/overallgrades_all_taak1.xlsx
@@ -2,13 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/leonard_maaya_kuleuven_be1/Documents/ATSTAT-TASKS/TASK1/1.FILES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="240" documentId="11_329A9DCD8F79A8D366075C52F37BD2725AC264DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3A0941F-FD8E-4B45-A257-4B5A9ECE4746}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="11_329A9DCD8F79A8D366075C52F37BD2725AC264DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1215E4FF-2BA0-420A-8078-B4B3CEF4051A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +19,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$358</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="1346">
   <si>
     <t>User.Name</t>
   </si>
@@ -311,6 +315,9 @@
     <t>2023-10-18 15:47:08</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>q1229911</t>
   </si>
   <si>
@@ -4071,12 +4078,6 @@
   </si>
   <si>
     <t>2023-10-19 16:12:58</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -4126,12 +4127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -4472,15 +4472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z358"/>
+  <dimension ref="A1:Y358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K360" sqref="K360"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4621,11 +4621,8 @@
       <c r="Y2" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4702,7 +4699,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -4779,7 +4776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4844,7 +4841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -4915,7 +4912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4980,7 +4977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -5045,7 +5042,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -5122,7 +5119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -5199,7 +5196,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -5276,7 +5273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -5341,7 +5338,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -5384,7 +5381,7 @@
       <c r="N13">
         <v>23.02</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>0.75</v>
       </c>
       <c r="P13">
@@ -5408,14 +5405,14 @@
       <c r="W13">
         <v>1</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="2">
         <v>2.75</v>
       </c>
       <c r="Y13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -5492,7 +5489,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -5569,7 +5566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>87</v>
       </c>
@@ -5600,7 +5597,7 @@
       <c r="J16">
         <v>86631.657000000007</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>1</v>
       </c>
       <c r="L16">
@@ -5622,7 +5619,7 @@
         <v>1</v>
       </c>
       <c r="R16" t="s">
-        <v>1345</v>
+        <v>91</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -5639,7 +5636,7 @@
       <c r="W16">
         <v>1</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="2">
         <v>4</v>
       </c>
       <c r="Y16" t="s">
@@ -5648,22 +5645,22 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <v>754386</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" t="s">
         <v>30</v>
@@ -5725,13 +5722,13 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
         <v>57</v>
@@ -5740,7 +5737,7 @@
         <v>763898</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G18" t="s">
         <v>30</v>
@@ -5793,13 +5790,13 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -5855,13 +5852,13 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
@@ -5870,7 +5867,7 @@
         <v>952035</v>
       </c>
       <c r="F20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G20" t="s">
         <v>30</v>
@@ -5932,13 +5929,13 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
@@ -5947,7 +5944,7 @@
         <v>736321</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -6009,13 +6006,13 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -6024,7 +6021,7 @@
         <v>916439</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -6086,13 +6083,13 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -6101,7 +6098,7 @@
         <v>762778</v>
       </c>
       <c r="F23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
         <v>30</v>
@@ -6151,13 +6148,13 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -6166,7 +6163,7 @@
         <v>757471</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
@@ -6228,13 +6225,13 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
         <v>28</v>
@@ -6290,13 +6287,13 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
@@ -6305,7 +6302,7 @@
         <v>733738</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -6331,7 +6328,7 @@
       <c r="N26">
         <v>5.9059999999999997</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="2">
         <v>0.75</v>
       </c>
       <c r="P26">
@@ -6358,7 +6355,7 @@
       <c r="W26">
         <v>0</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="2">
         <v>2.75</v>
       </c>
       <c r="Y26" t="s">
@@ -6367,13 +6364,13 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D27" t="s">
         <v>57</v>
@@ -6382,7 +6379,7 @@
         <v>748818</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
@@ -6444,13 +6441,13 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
         <v>57</v>
@@ -6459,7 +6456,7 @@
         <v>761782</v>
       </c>
       <c r="F28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -6521,13 +6518,13 @@
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D29" t="s">
         <v>57</v>
@@ -6536,7 +6533,7 @@
         <v>808300</v>
       </c>
       <c r="F29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G29" t="s">
         <v>30</v>
@@ -6598,13 +6595,13 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
         <v>28</v>
@@ -6613,7 +6610,7 @@
         <v>785172</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
@@ -6672,13 +6669,13 @@
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -6687,7 +6684,7 @@
         <v>810477</v>
       </c>
       <c r="F31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
         <v>30</v>
@@ -6737,13 +6734,13 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -6752,7 +6749,7 @@
         <v>846037</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G32" t="s">
         <v>30</v>
@@ -6814,13 +6811,13 @@
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D33" t="s">
         <v>57</v>
@@ -6829,7 +6826,7 @@
         <v>740660</v>
       </c>
       <c r="F33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G33" t="s">
         <v>30</v>
@@ -6879,13 +6876,13 @@
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -6894,7 +6891,7 @@
         <v>838347</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G34" t="s">
         <v>30</v>
@@ -6956,13 +6953,13 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -6971,7 +6968,7 @@
         <v>953939</v>
       </c>
       <c r="F35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G35" t="s">
         <v>30</v>
@@ -7033,7 +7030,7 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -7048,7 +7045,7 @@
         <v>811790</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -7110,13 +7107,13 @@
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -7125,7 +7122,7 @@
         <v>801127</v>
       </c>
       <c r="F37" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G37" t="s">
         <v>30</v>
@@ -7187,13 +7184,13 @@
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
@@ -7202,7 +7199,7 @@
         <v>801448</v>
       </c>
       <c r="F38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G38" t="s">
         <v>30</v>
@@ -7264,13 +7261,13 @@
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C39" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
@@ -7279,7 +7276,7 @@
         <v>1001832</v>
       </c>
       <c r="F39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G39" t="s">
         <v>30</v>
@@ -7341,13 +7338,13 @@
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D40" t="s">
         <v>57</v>
@@ -7356,7 +7353,7 @@
         <v>808996</v>
       </c>
       <c r="F40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G40" t="s">
         <v>30</v>
@@ -7418,13 +7415,13 @@
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D41" t="s">
         <v>57</v>
@@ -7433,7 +7430,7 @@
         <v>801816</v>
       </c>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G41" t="s">
         <v>30</v>
@@ -7495,22 +7492,22 @@
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B42" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E42">
         <v>978108</v>
       </c>
       <c r="F42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G42" t="s">
         <v>30</v>
@@ -7572,13 +7569,13 @@
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -7587,7 +7584,7 @@
         <v>952005</v>
       </c>
       <c r="F43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G43" t="s">
         <v>30</v>
@@ -7649,13 +7646,13 @@
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D44" t="s">
         <v>28</v>
@@ -7664,7 +7661,7 @@
         <v>839327</v>
       </c>
       <c r="F44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G44" t="s">
         <v>30</v>
@@ -7678,7 +7675,7 @@
       <c r="J44">
         <v>47489.495000000003</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="2">
         <v>1</v>
       </c>
       <c r="L44">
@@ -7690,7 +7687,7 @@
       <c r="N44">
         <v>8.4480000000000004</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="2">
         <v>1</v>
       </c>
       <c r="P44">
@@ -7717,7 +7714,7 @@
       <c r="W44">
         <v>1</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="2">
         <v>3</v>
       </c>
       <c r="Y44" t="s">
@@ -7726,13 +7723,13 @@
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
         <v>28</v>
@@ -7741,7 +7738,7 @@
         <v>811948</v>
       </c>
       <c r="F45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G45" t="s">
         <v>30</v>
@@ -7767,7 +7764,7 @@
       <c r="N45">
         <v>0.42699999999999999</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="2">
         <v>0.75</v>
       </c>
       <c r="P45">
@@ -7794,7 +7791,7 @@
       <c r="W45">
         <v>1</v>
       </c>
-      <c r="X45" s="3">
+      <c r="X45" s="2">
         <v>3.75</v>
       </c>
       <c r="Y45" t="s">
@@ -7803,10 +7800,10 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C46" t="s">
         <v>34</v>
@@ -7818,7 +7815,7 @@
         <v>852932</v>
       </c>
       <c r="F46" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G46" t="s">
         <v>30</v>
@@ -7868,13 +7865,13 @@
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B47" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C47" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D47" t="s">
         <v>57</v>
@@ -7883,7 +7880,7 @@
         <v>811635</v>
       </c>
       <c r="F47" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G47" t="s">
         <v>30</v>
@@ -7945,13 +7942,13 @@
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s">
         <v>28</v>
@@ -7960,7 +7957,7 @@
         <v>808015</v>
       </c>
       <c r="F48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -8010,13 +8007,13 @@
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D49" t="s">
         <v>57</v>
@@ -8025,7 +8022,7 @@
         <v>845858</v>
       </c>
       <c r="F49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -8051,7 +8048,7 @@
       <c r="N49">
         <v>12.884</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="2">
         <v>0.75</v>
       </c>
       <c r="P49">
@@ -8078,7 +8075,7 @@
       <c r="W49">
         <v>0</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="2">
         <v>2.75</v>
       </c>
       <c r="Y49" t="s">
@@ -8087,13 +8084,13 @@
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
@@ -8102,7 +8099,7 @@
         <v>852912</v>
       </c>
       <c r="F50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -8152,13 +8149,13 @@
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C51" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D51" t="s">
         <v>28</v>
@@ -8167,7 +8164,7 @@
         <v>837754</v>
       </c>
       <c r="F51" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G51" t="s">
         <v>30</v>
@@ -8217,13 +8214,13 @@
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
         <v>28</v>
@@ -8232,7 +8229,7 @@
         <v>808516</v>
       </c>
       <c r="F52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G52" t="s">
         <v>30</v>
@@ -8288,13 +8285,13 @@
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B53" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C53" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D53" t="s">
         <v>28</v>
@@ -8303,7 +8300,7 @@
         <v>836902</v>
       </c>
       <c r="F53" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G53" t="s">
         <v>30</v>
@@ -8311,25 +8308,25 @@
       <c r="H53">
         <v>4</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="2">
         <v>86335.37</v>
       </c>
       <c r="J53">
         <v>86335.370999999999</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="2">
         <v>1</v>
       </c>
       <c r="L53">
         <v>10</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="2">
         <v>2.7E-2</v>
       </c>
       <c r="N53">
         <v>2.7E-2</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53" s="2">
         <v>1</v>
       </c>
       <c r="P53">
@@ -8356,7 +8353,7 @@
       <c r="W53">
         <v>1</v>
       </c>
-      <c r="X53" s="3">
+      <c r="X53" s="2">
         <v>4</v>
       </c>
       <c r="Y53" t="s">
@@ -8365,13 +8362,13 @@
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D54" t="s">
         <v>28</v>
@@ -8380,7 +8377,7 @@
         <v>786690</v>
       </c>
       <c r="F54" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G54" t="s">
         <v>30</v>
@@ -8442,13 +8439,13 @@
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B55" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C55" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D55" t="s">
         <v>28</v>
@@ -8457,7 +8454,7 @@
         <v>808002</v>
       </c>
       <c r="F55" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G55" t="s">
         <v>30</v>
@@ -8507,13 +8504,13 @@
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C56" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D56" t="s">
         <v>28</v>
@@ -8522,7 +8519,7 @@
         <v>799184</v>
       </c>
       <c r="F56" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -8584,13 +8581,13 @@
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B57" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C57" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D57" t="s">
         <v>57</v>
@@ -8599,7 +8596,7 @@
         <v>806861</v>
       </c>
       <c r="F57" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G57" t="s">
         <v>30</v>
@@ -8661,13 +8658,13 @@
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D58" t="s">
         <v>28</v>
@@ -8676,7 +8673,7 @@
         <v>838218</v>
       </c>
       <c r="F58" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G58" t="s">
         <v>30</v>
@@ -8738,13 +8735,13 @@
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D59" t="s">
         <v>28</v>
@@ -8753,7 +8750,7 @@
         <v>810883</v>
       </c>
       <c r="F59" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G59" t="s">
         <v>30</v>
@@ -8812,13 +8809,13 @@
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B60" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C60" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D60" t="s">
         <v>57</v>
@@ -8827,7 +8824,7 @@
         <v>808820</v>
       </c>
       <c r="F60" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G60" t="s">
         <v>30</v>
@@ -8889,13 +8886,13 @@
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C61" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D61" t="s">
         <v>57</v>
@@ -8904,7 +8901,7 @@
         <v>796756</v>
       </c>
       <c r="F61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G61" t="s">
         <v>30</v>
@@ -8966,13 +8963,13 @@
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D62" t="s">
         <v>57</v>
@@ -8981,7 +8978,7 @@
         <v>767219</v>
       </c>
       <c r="F62" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G62" t="s">
         <v>30</v>
@@ -9043,13 +9040,13 @@
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B63" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C63" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D63" t="s">
         <v>28</v>
@@ -9058,7 +9055,7 @@
         <v>827366</v>
       </c>
       <c r="F63" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G63" t="s">
         <v>30</v>
@@ -9120,10 +9117,10 @@
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B64" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
@@ -9135,7 +9132,7 @@
         <v>833000</v>
       </c>
       <c r="F64" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G64" t="s">
         <v>30</v>
@@ -9197,13 +9194,13 @@
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C65" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D65" t="s">
         <v>28</v>
@@ -9212,7 +9209,7 @@
         <v>805447</v>
       </c>
       <c r="F65" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G65" t="s">
         <v>30</v>
@@ -9274,13 +9271,13 @@
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B66" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D66" t="s">
         <v>28</v>
@@ -9289,7 +9286,7 @@
         <v>792731</v>
       </c>
       <c r="F66" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -9342,13 +9339,13 @@
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B67" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C67" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D67" t="s">
         <v>57</v>
@@ -9357,7 +9354,7 @@
         <v>847181</v>
       </c>
       <c r="F67" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G67" t="s">
         <v>30</v>
@@ -9419,13 +9416,13 @@
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B68" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C68" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D68" t="s">
         <v>28</v>
@@ -9434,7 +9431,7 @@
         <v>857778</v>
       </c>
       <c r="F68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G68" t="s">
         <v>30</v>
@@ -9496,13 +9493,13 @@
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B69" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C69" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D69" t="s">
         <v>57</v>
@@ -9511,7 +9508,7 @@
         <v>811681</v>
       </c>
       <c r="F69" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G69" t="s">
         <v>30</v>
@@ -9573,13 +9570,13 @@
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B70" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D70" t="s">
         <v>28</v>
@@ -9588,7 +9585,7 @@
         <v>808088</v>
       </c>
       <c r="F70" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G70" t="s">
         <v>30</v>
@@ -9650,13 +9647,13 @@
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B71" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C71" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D71" t="s">
         <v>57</v>
@@ -9665,7 +9662,7 @@
         <v>848542</v>
       </c>
       <c r="F71" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G71" t="s">
         <v>30</v>
@@ -9727,13 +9724,13 @@
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B72" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C72" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D72" t="s">
         <v>57</v>
@@ -9742,7 +9739,7 @@
         <v>852629</v>
       </c>
       <c r="F72" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G72" t="s">
         <v>30</v>
@@ -9804,13 +9801,13 @@
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B73" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D73" t="s">
         <v>57</v>
@@ -9819,7 +9816,7 @@
         <v>839531</v>
       </c>
       <c r="F73" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G73" t="s">
         <v>30</v>
@@ -9881,13 +9878,13 @@
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B74" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C74" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D74" t="s">
         <v>57</v>
@@ -9896,7 +9893,7 @@
         <v>845956</v>
       </c>
       <c r="F74" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G74" t="s">
         <v>30</v>
@@ -9958,10 +9955,10 @@
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B75" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C75" t="s">
         <v>56</v>
@@ -9973,7 +9970,7 @@
         <v>794262</v>
       </c>
       <c r="F75" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G75" t="s">
         <v>30</v>
@@ -10023,13 +10020,13 @@
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B76" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C76" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D76" t="s">
         <v>57</v>
@@ -10038,7 +10035,7 @@
         <v>852909</v>
       </c>
       <c r="F76" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
@@ -10064,7 +10061,7 @@
       <c r="N76">
         <v>2.7959999999999998</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="2">
         <v>0.75</v>
       </c>
       <c r="P76">
@@ -10091,7 +10088,7 @@
       <c r="W76">
         <v>1</v>
       </c>
-      <c r="X76" s="3">
+      <c r="X76" s="2">
         <v>3.75</v>
       </c>
       <c r="Y76" t="s">
@@ -10100,13 +10097,13 @@
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B77" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C77" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D77" t="s">
         <v>57</v>
@@ -10115,7 +10112,7 @@
         <v>832358</v>
       </c>
       <c r="F77" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G77" t="s">
         <v>30</v>
@@ -10129,19 +10126,19 @@
       <c r="J77">
         <v>49126.55</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="2">
         <v>0.5</v>
       </c>
       <c r="L77">
         <v>8</v>
       </c>
-      <c r="M77" s="4">
+      <c r="M77" s="3">
         <v>3933</v>
       </c>
       <c r="N77">
         <v>3.9329999999999998</v>
       </c>
-      <c r="O77" s="3">
+      <c r="O77" s="2">
         <v>1</v>
       </c>
       <c r="P77">
@@ -10168,7 +10165,7 @@
       <c r="W77">
         <v>1</v>
       </c>
-      <c r="X77" s="3">
+      <c r="X77" s="2">
         <v>2.5</v>
       </c>
       <c r="Y77" t="s">
@@ -10177,13 +10174,13 @@
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B78" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C78" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D78" t="s">
         <v>57</v>
@@ -10192,7 +10189,7 @@
         <v>851008</v>
       </c>
       <c r="F78" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G78" t="s">
         <v>30</v>
@@ -10254,13 +10251,13 @@
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B79" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C79" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D79" t="s">
         <v>28</v>
@@ -10269,7 +10266,7 @@
         <v>851497</v>
       </c>
       <c r="F79" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G79" t="s">
         <v>30</v>
@@ -10331,13 +10328,13 @@
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B80" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C80" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D80" t="s">
         <v>57</v>
@@ -10346,7 +10343,7 @@
         <v>852933</v>
       </c>
       <c r="F80" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G80" t="s">
         <v>30</v>
@@ -10408,13 +10405,13 @@
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B81" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C81" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D81" t="s">
         <v>28</v>
@@ -10423,7 +10420,7 @@
         <v>806920</v>
       </c>
       <c r="F81" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G81" t="s">
         <v>30</v>
@@ -10473,13 +10470,13 @@
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B82" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C82" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D82" t="s">
         <v>28</v>
@@ -10488,7 +10485,7 @@
         <v>846328</v>
       </c>
       <c r="F82" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G82" t="s">
         <v>30</v>
@@ -10514,7 +10511,7 @@
       <c r="N82">
         <v>9.68</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O82" s="2">
         <v>0.25</v>
       </c>
       <c r="P82">
@@ -10541,7 +10538,7 @@
       <c r="W82">
         <v>1</v>
       </c>
-      <c r="X82" s="3">
+      <c r="X82" s="2">
         <v>3.25</v>
       </c>
       <c r="Y82" t="s">
@@ -10550,13 +10547,13 @@
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B83" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C83" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D83" t="s">
         <v>28</v>
@@ -10565,7 +10562,7 @@
         <v>836671</v>
       </c>
       <c r="F83" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G83" t="s">
         <v>30</v>
@@ -10627,13 +10624,13 @@
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B84" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C84" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D84" t="s">
         <v>28</v>
@@ -10642,7 +10639,7 @@
         <v>832514</v>
       </c>
       <c r="F84" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G84" t="s">
         <v>30</v>
@@ -10704,13 +10701,13 @@
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B85" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C85" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D85" t="s">
         <v>57</v>
@@ -10719,7 +10716,7 @@
         <v>787723</v>
       </c>
       <c r="F85" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -10781,13 +10778,13 @@
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B86" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D86" t="s">
         <v>28</v>
@@ -10796,7 +10793,7 @@
         <v>852885</v>
       </c>
       <c r="F86" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G86" t="s">
         <v>30</v>
@@ -10858,13 +10855,13 @@
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D87" t="s">
         <v>28</v>
@@ -10873,7 +10870,7 @@
         <v>794030</v>
       </c>
       <c r="F87" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G87" t="s">
         <v>30</v>
@@ -10923,13 +10920,13 @@
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B88" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C88" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D88" t="s">
         <v>57</v>
@@ -10938,7 +10935,7 @@
         <v>788735</v>
       </c>
       <c r="F88" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G88" t="s">
         <v>30</v>
@@ -11000,13 +10997,13 @@
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B89" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C89" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D89" t="s">
         <v>57</v>
@@ -11015,7 +11012,7 @@
         <v>798791</v>
       </c>
       <c r="F89" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G89" t="s">
         <v>30</v>
@@ -11077,13 +11074,13 @@
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B90" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D90" t="s">
         <v>57</v>
@@ -11092,7 +11089,7 @@
         <v>842215</v>
       </c>
       <c r="F90" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G90" t="s">
         <v>30</v>
@@ -11154,13 +11151,13 @@
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B91" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C91" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D91" t="s">
         <v>28</v>
@@ -11169,7 +11166,7 @@
         <v>805157</v>
       </c>
       <c r="F91" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G91" t="s">
         <v>30</v>
@@ -11231,13 +11228,13 @@
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B92" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C92" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D92" t="s">
         <v>57</v>
@@ -11246,7 +11243,7 @@
         <v>808519</v>
       </c>
       <c r="F92" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G92" t="s">
         <v>30</v>
@@ -11305,13 +11302,13 @@
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B93" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C93" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D93" t="s">
         <v>57</v>
@@ -11320,7 +11317,7 @@
         <v>952669</v>
       </c>
       <c r="F93" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G93" t="s">
         <v>30</v>
@@ -11379,13 +11376,13 @@
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B94" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C94" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D94" t="s">
         <v>57</v>
@@ -11394,7 +11391,7 @@
         <v>797299</v>
       </c>
       <c r="F94" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G94" t="s">
         <v>30</v>
@@ -11456,13 +11453,13 @@
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B95" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C95" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D95" t="s">
         <v>57</v>
@@ -11471,7 +11468,7 @@
         <v>852918</v>
       </c>
       <c r="F95" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G95" t="s">
         <v>30</v>
@@ -11533,13 +11530,13 @@
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B96" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C96" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D96" t="s">
         <v>28</v>
@@ -11548,7 +11545,7 @@
         <v>841888</v>
       </c>
       <c r="F96" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
@@ -11610,10 +11607,10 @@
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B97" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C97" t="s">
         <v>69</v>
@@ -11625,7 +11622,7 @@
         <v>836947</v>
       </c>
       <c r="F97" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="G97" t="s">
         <v>30</v>
@@ -11687,13 +11684,13 @@
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B98" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C98" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D98" t="s">
         <v>28</v>
@@ -11702,7 +11699,7 @@
         <v>854412</v>
       </c>
       <c r="F98" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G98" t="s">
         <v>30</v>
@@ -11764,13 +11761,13 @@
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B99" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C99" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D99" t="s">
         <v>57</v>
@@ -11779,7 +11776,7 @@
         <v>852927</v>
       </c>
       <c r="F99" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G99" t="s">
         <v>30</v>
@@ -11841,13 +11838,13 @@
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B100" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C100" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D100" t="s">
         <v>57</v>
@@ -11856,7 +11853,7 @@
         <v>803376</v>
       </c>
       <c r="F100" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G100" t="s">
         <v>30</v>
@@ -11918,13 +11915,13 @@
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B101" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C101" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D101" t="s">
         <v>57</v>
@@ -11933,7 +11930,7 @@
         <v>833298</v>
       </c>
       <c r="F101" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G101" t="s">
         <v>30</v>
@@ -11959,7 +11956,7 @@
       <c r="N101">
         <v>30.457999999999998</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="2">
         <v>1</v>
       </c>
       <c r="P101">
@@ -11986,7 +11983,7 @@
       <c r="W101">
         <v>0</v>
       </c>
-      <c r="X101" s="3">
+      <c r="X101" s="2">
         <v>3</v>
       </c>
       <c r="Y101" t="s">
@@ -11995,13 +11992,13 @@
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B102" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C102" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D102" t="s">
         <v>57</v>
@@ -12010,7 +12007,7 @@
         <v>835108</v>
       </c>
       <c r="F102" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G102" t="s">
         <v>30</v>
@@ -12060,10 +12057,10 @@
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B103" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C103" t="s">
         <v>39</v>
@@ -12075,7 +12072,7 @@
         <v>808832</v>
       </c>
       <c r="F103" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -12125,13 +12122,13 @@
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B104" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C104" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D104" t="s">
         <v>57</v>
@@ -12140,7 +12137,7 @@
         <v>848964</v>
       </c>
       <c r="F104" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G104" t="s">
         <v>30</v>
@@ -12202,13 +12199,13 @@
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B105" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C105" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D105" t="s">
         <v>57</v>
@@ -12217,7 +12214,7 @@
         <v>834976</v>
       </c>
       <c r="F105" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G105" t="s">
         <v>30</v>
@@ -12279,13 +12276,13 @@
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B106" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C106" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D106" t="s">
         <v>57</v>
@@ -12353,13 +12350,13 @@
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B107" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C107" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D107" t="s">
         <v>57</v>
@@ -12368,7 +12365,7 @@
         <v>849322</v>
       </c>
       <c r="F107" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -12430,13 +12427,13 @@
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B108" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D108" t="s">
         <v>28</v>
@@ -12445,7 +12442,7 @@
         <v>812450</v>
       </c>
       <c r="F108" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G108" t="s">
         <v>30</v>
@@ -12501,13 +12498,13 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B109" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C109" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D109" t="s">
         <v>28</v>
@@ -12516,7 +12513,7 @@
         <v>848792</v>
       </c>
       <c r="F109" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G109" t="s">
         <v>30</v>
@@ -12578,13 +12575,13 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B110" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C110" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D110" t="s">
         <v>57</v>
@@ -12593,7 +12590,7 @@
         <v>852869</v>
       </c>
       <c r="F110" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G110" t="s">
         <v>30</v>
@@ -12655,13 +12652,13 @@
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B111" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C111" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D111" t="s">
         <v>28</v>
@@ -12670,7 +12667,7 @@
         <v>849512</v>
       </c>
       <c r="F111" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G111" t="s">
         <v>30</v>
@@ -12732,13 +12729,13 @@
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B112" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C112" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D112" t="s">
         <v>28</v>
@@ -12747,7 +12744,7 @@
         <v>1008861</v>
       </c>
       <c r="F112" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G112" t="s">
         <v>30</v>
@@ -12773,7 +12770,7 @@
       <c r="N112">
         <v>3.4489999999999998</v>
       </c>
-      <c r="O112" s="3">
+      <c r="O112" s="2">
         <v>0.75</v>
       </c>
       <c r="P112">
@@ -12800,7 +12797,7 @@
       <c r="W112">
         <v>0</v>
       </c>
-      <c r="X112" s="3">
+      <c r="X112" s="2">
         <v>2.75</v>
       </c>
       <c r="Y112" t="s">
@@ -12809,13 +12806,13 @@
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B113" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C113" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D113" t="s">
         <v>28</v>
@@ -12824,7 +12821,7 @@
         <v>842059</v>
       </c>
       <c r="F113" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G113" t="s">
         <v>30</v>
@@ -12886,13 +12883,13 @@
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B114" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C114" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D114" t="s">
         <v>28</v>
@@ -12901,7 +12898,7 @@
         <v>845058</v>
       </c>
       <c r="F114" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G114" t="s">
         <v>30</v>
@@ -12963,13 +12960,13 @@
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B115" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C115" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D115" t="s">
         <v>28</v>
@@ -12978,7 +12975,7 @@
         <v>813841</v>
       </c>
       <c r="F115" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G115" t="s">
         <v>30</v>
@@ -13028,13 +13025,13 @@
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B116" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C116" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D116" t="s">
         <v>28</v>
@@ -13043,7 +13040,7 @@
         <v>859231</v>
       </c>
       <c r="F116" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G116" t="s">
         <v>30</v>
@@ -13105,13 +13102,13 @@
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B117" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C117" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D117" t="s">
         <v>28</v>
@@ -13120,7 +13117,7 @@
         <v>848340</v>
       </c>
       <c r="F117" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G117" t="s">
         <v>30</v>
@@ -13170,13 +13167,13 @@
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B118" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C118" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D118" t="s">
         <v>57</v>
@@ -13185,7 +13182,7 @@
         <v>847987</v>
       </c>
       <c r="F118" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G118" t="s">
         <v>30</v>
@@ -13211,7 +13208,7 @@
       <c r="N118">
         <v>20.550999999999998</v>
       </c>
-      <c r="O118" s="3">
+      <c r="O118" s="2">
         <v>0.25</v>
       </c>
       <c r="P118">
@@ -13238,7 +13235,7 @@
       <c r="W118">
         <v>0</v>
       </c>
-      <c r="X118" s="3">
+      <c r="X118" s="2">
         <v>1.25</v>
       </c>
       <c r="Y118" t="s">
@@ -13247,13 +13244,13 @@
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B119" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C119" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D119" t="s">
         <v>57</v>
@@ -13262,7 +13259,7 @@
         <v>846826</v>
       </c>
       <c r="F119" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G119" t="s">
         <v>30</v>
@@ -13288,7 +13285,7 @@
       <c r="N119">
         <v>10.901</v>
       </c>
-      <c r="O119" s="3">
+      <c r="O119" s="2">
         <v>0.75</v>
       </c>
       <c r="P119">
@@ -13315,7 +13312,7 @@
       <c r="W119">
         <v>1</v>
       </c>
-      <c r="X119" s="3">
+      <c r="X119" s="2">
         <v>3.75</v>
       </c>
       <c r="Y119" t="s">
@@ -13324,13 +13321,13 @@
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B120" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C120" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D120" t="s">
         <v>57</v>
@@ -13339,7 +13336,7 @@
         <v>840023</v>
       </c>
       <c r="F120" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G120" t="s">
         <v>30</v>
@@ -13401,13 +13398,13 @@
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B121" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C121" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D121" t="s">
         <v>57</v>
@@ -13416,7 +13413,7 @@
         <v>845125</v>
       </c>
       <c r="F121" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G121" t="s">
         <v>30</v>
@@ -13478,13 +13475,13 @@
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B122" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C122" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D122" t="s">
         <v>28</v>
@@ -13493,7 +13490,7 @@
         <v>986893</v>
       </c>
       <c r="F122" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G122" t="s">
         <v>30</v>
@@ -13555,13 +13552,13 @@
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B123" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C123" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D123" t="s">
         <v>28</v>
@@ -13570,7 +13567,7 @@
         <v>858223</v>
       </c>
       <c r="F123" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G123" t="s">
         <v>30</v>
@@ -13632,13 +13629,13 @@
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B124" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C124" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D124" t="s">
         <v>28</v>
@@ -13647,7 +13644,7 @@
         <v>844603</v>
       </c>
       <c r="F124" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="G124" t="s">
         <v>30</v>
@@ -13709,13 +13706,13 @@
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B125" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C125" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D125" t="s">
         <v>57</v>
@@ -13724,7 +13721,7 @@
         <v>827010</v>
       </c>
       <c r="F125" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G125" t="s">
         <v>30</v>
@@ -13786,13 +13783,13 @@
     </row>
     <row r="126" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B126" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C126" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D126" t="s">
         <v>28</v>
@@ -13801,7 +13798,7 @@
         <v>857998</v>
       </c>
       <c r="F126" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G126" t="s">
         <v>30</v>
@@ -13863,13 +13860,13 @@
     </row>
     <row r="127" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B127" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C127" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D127" t="s">
         <v>28</v>
@@ -13878,7 +13875,7 @@
         <v>842091</v>
       </c>
       <c r="F127" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G127" t="s">
         <v>30</v>
@@ -13928,7 +13925,7 @@
       <c r="W127">
         <v>1</v>
       </c>
-      <c r="X127" s="3">
+      <c r="X127" s="2">
         <v>4</v>
       </c>
       <c r="Y127" t="s">
@@ -13937,13 +13934,13 @@
     </row>
     <row r="128" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B128" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C128" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D128" t="s">
         <v>57</v>
@@ -13952,7 +13949,7 @@
         <v>845074</v>
       </c>
       <c r="F128" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="G128" t="s">
         <v>30</v>
@@ -14014,13 +14011,13 @@
     </row>
     <row r="129" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B129" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C129" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D129" t="s">
         <v>28</v>
@@ -14029,7 +14026,7 @@
         <v>849397</v>
       </c>
       <c r="F129" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="G129" t="s">
         <v>30</v>
@@ -14091,13 +14088,13 @@
     </row>
     <row r="130" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B130" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C130" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D130" t="s">
         <v>28</v>
@@ -14106,7 +14103,7 @@
         <v>1006132</v>
       </c>
       <c r="F130" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G130" t="s">
         <v>30</v>
@@ -14168,13 +14165,13 @@
     </row>
     <row r="131" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B131" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C131" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D131" t="s">
         <v>57</v>
@@ -14183,7 +14180,7 @@
         <v>836373</v>
       </c>
       <c r="F131" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G131" t="s">
         <v>30</v>
@@ -14245,13 +14242,13 @@
     </row>
     <row r="132" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B132" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C132" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D132" t="s">
         <v>57</v>
@@ -14322,13 +14319,13 @@
     </row>
     <row r="133" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B133" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C133" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D133" t="s">
         <v>28</v>
@@ -14337,7 +14334,7 @@
         <v>829092</v>
       </c>
       <c r="F133" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G133" t="s">
         <v>30</v>
@@ -14399,13 +14396,13 @@
     </row>
     <row r="134" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B134" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C134" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D134" t="s">
         <v>28</v>
@@ -14414,7 +14411,7 @@
         <v>857771</v>
       </c>
       <c r="F134" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="G134" t="s">
         <v>30</v>
@@ -14476,13 +14473,13 @@
     </row>
     <row r="135" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B135" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C135" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D135" t="s">
         <v>28</v>
@@ -14491,7 +14488,7 @@
         <v>841814</v>
       </c>
       <c r="F135" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -14553,13 +14550,13 @@
     </row>
     <row r="136" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B136" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C136" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D136" t="s">
         <v>28</v>
@@ -14568,7 +14565,7 @@
         <v>975233</v>
       </c>
       <c r="F136" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="G136" t="s">
         <v>30</v>
@@ -14630,13 +14627,13 @@
     </row>
     <row r="137" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B137" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C137" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D137" t="s">
         <v>57</v>
@@ -14645,7 +14642,7 @@
         <v>840705</v>
       </c>
       <c r="F137" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="G137" t="s">
         <v>30</v>
@@ -14707,13 +14704,13 @@
     </row>
     <row r="138" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B138" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C138" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D138" t="s">
         <v>28</v>
@@ -14722,7 +14719,7 @@
         <v>857780</v>
       </c>
       <c r="F138" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="G138" t="s">
         <v>30</v>
@@ -14772,13 +14769,13 @@
     </row>
     <row r="139" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B139" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C139" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D139" t="s">
         <v>28</v>
@@ -14787,7 +14784,7 @@
         <v>844272</v>
       </c>
       <c r="F139" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G139" t="s">
         <v>30</v>
@@ -14849,13 +14846,13 @@
     </row>
     <row r="140" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B140" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C140" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D140" t="s">
         <v>57</v>
@@ -14864,7 +14861,7 @@
         <v>854050</v>
       </c>
       <c r="F140" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G140" t="s">
         <v>30</v>
@@ -14890,7 +14887,7 @@
       <c r="N140">
         <v>194.05500000000001</v>
       </c>
-      <c r="O140" s="3">
+      <c r="O140" s="2">
         <v>0.75</v>
       </c>
       <c r="P140">
@@ -14917,7 +14914,7 @@
       <c r="W140">
         <v>0</v>
       </c>
-      <c r="X140" s="3">
+      <c r="X140" s="2">
         <v>2.75</v>
       </c>
       <c r="Y140" t="s">
@@ -14926,13 +14923,13 @@
     </row>
     <row r="141" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B141" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C141" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D141" t="s">
         <v>57</v>
@@ -14941,7 +14938,7 @@
         <v>843974</v>
       </c>
       <c r="F141" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G141" t="s">
         <v>30</v>
@@ -15003,13 +15000,13 @@
     </row>
     <row r="142" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B142" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C142" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D142" t="s">
         <v>57</v>
@@ -15018,7 +15015,7 @@
         <v>845551</v>
       </c>
       <c r="F142" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G142" t="s">
         <v>30</v>
@@ -15071,13 +15068,13 @@
     </row>
     <row r="143" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B143" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C143" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D143" t="s">
         <v>57</v>
@@ -15086,7 +15083,7 @@
         <v>850184</v>
       </c>
       <c r="F143" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G143" t="s">
         <v>30</v>
@@ -15112,7 +15109,7 @@
       <c r="N143">
         <v>1.2490000000000001</v>
       </c>
-      <c r="O143" s="3">
+      <c r="O143" s="2">
         <v>0.75</v>
       </c>
       <c r="P143">
@@ -15139,7 +15136,7 @@
       <c r="W143">
         <v>0</v>
       </c>
-      <c r="X143" s="3">
+      <c r="X143" s="2">
         <v>2.75</v>
       </c>
       <c r="Y143" t="s">
@@ -15148,13 +15145,13 @@
     </row>
     <row r="144" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B144" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C144" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D144" t="s">
         <v>28</v>
@@ -15163,7 +15160,7 @@
         <v>835774</v>
       </c>
       <c r="F144" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G144" t="s">
         <v>30</v>
@@ -15225,13 +15222,13 @@
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B145" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C145" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D145" t="s">
         <v>28</v>
@@ -15240,7 +15237,7 @@
         <v>843387</v>
       </c>
       <c r="F145" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G145" t="s">
         <v>30</v>
@@ -15299,13 +15296,13 @@
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B146" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C146" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D146" t="s">
         <v>28</v>
@@ -15314,7 +15311,7 @@
         <v>827365</v>
       </c>
       <c r="F146" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G146" t="s">
         <v>30</v>
@@ -15376,13 +15373,13 @@
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B147" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C147" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D147" t="s">
         <v>57</v>
@@ -15391,7 +15388,7 @@
         <v>858219</v>
       </c>
       <c r="F147" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G147" t="s">
         <v>30</v>
@@ -15453,13 +15450,13 @@
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B148" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C148" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D148" t="s">
         <v>28</v>
@@ -15468,7 +15465,7 @@
         <v>827363</v>
       </c>
       <c r="F148" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G148" t="s">
         <v>30</v>
@@ -15530,13 +15527,13 @@
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B149" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C149" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D149" t="s">
         <v>28</v>
@@ -15545,7 +15542,7 @@
         <v>855074</v>
       </c>
       <c r="F149" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G149" t="s">
         <v>30</v>
@@ -15607,13 +15604,13 @@
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B150" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C150" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D150" t="s">
         <v>57</v>
@@ -15622,7 +15619,7 @@
         <v>837320</v>
       </c>
       <c r="F150" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G150" t="s">
         <v>30</v>
@@ -15684,13 +15681,13 @@
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B151" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C151" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D151" t="s">
         <v>28</v>
@@ -15699,7 +15696,7 @@
         <v>855069</v>
       </c>
       <c r="F151" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G151" t="s">
         <v>30</v>
@@ -15761,13 +15758,13 @@
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B152" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C152" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D152" t="s">
         <v>28</v>
@@ -15776,7 +15773,7 @@
         <v>1000760</v>
       </c>
       <c r="F152" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G152" t="s">
         <v>30</v>
@@ -15838,13 +15835,13 @@
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B153" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C153" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D153" t="s">
         <v>57</v>
@@ -15853,7 +15850,7 @@
         <v>843095</v>
       </c>
       <c r="F153" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G153" t="s">
         <v>30</v>
@@ -15915,13 +15912,13 @@
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B154" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C154" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D154" t="s">
         <v>57</v>
@@ -15930,7 +15927,7 @@
         <v>842746</v>
       </c>
       <c r="F154" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="G154" t="s">
         <v>30</v>
@@ -15992,13 +15989,13 @@
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B155" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C155" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D155" t="s">
         <v>28</v>
@@ -16007,7 +16004,7 @@
         <v>847205</v>
       </c>
       <c r="F155" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G155" t="s">
         <v>30</v>
@@ -16057,13 +16054,13 @@
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B156" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C156" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D156" t="s">
         <v>57</v>
@@ -16072,7 +16069,7 @@
         <v>842093</v>
       </c>
       <c r="F156" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G156" t="s">
         <v>30</v>
@@ -16134,13 +16131,13 @@
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B157" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C157" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D157" t="s">
         <v>28</v>
@@ -16149,7 +16146,7 @@
         <v>832440</v>
       </c>
       <c r="F157" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G157" t="s">
         <v>30</v>
@@ -16211,13 +16208,13 @@
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B158" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C158" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D158" t="s">
         <v>57</v>
@@ -16226,7 +16223,7 @@
         <v>1009099</v>
       </c>
       <c r="F158" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="G158" t="s">
         <v>30</v>
@@ -16282,13 +16279,13 @@
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B159" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C159" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D159" t="s">
         <v>57</v>
@@ -16297,7 +16294,7 @@
         <v>847071</v>
       </c>
       <c r="F159" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G159" t="s">
         <v>30</v>
@@ -16359,13 +16356,13 @@
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B160" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C160" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D160" t="s">
         <v>57</v>
@@ -16374,7 +16371,7 @@
         <v>849110</v>
       </c>
       <c r="F160" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G160" t="s">
         <v>30</v>
@@ -16436,10 +16433,10 @@
     </row>
     <row r="161" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B161" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C161" t="s">
         <v>44</v>
@@ -16451,7 +16448,7 @@
         <v>857782</v>
       </c>
       <c r="F161" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G161" t="s">
         <v>30</v>
@@ -16501,13 +16498,13 @@
     </row>
     <row r="162" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B162" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C162" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D162" t="s">
         <v>28</v>
@@ -16516,7 +16513,7 @@
         <v>829090</v>
       </c>
       <c r="F162" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G162" t="s">
         <v>30</v>
@@ -16578,13 +16575,13 @@
     </row>
     <row r="163" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B163" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C163" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D163" t="s">
         <v>57</v>
@@ -16593,7 +16590,7 @@
         <v>854096</v>
       </c>
       <c r="F163" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G163" t="s">
         <v>30</v>
@@ -16655,13 +16652,13 @@
     </row>
     <row r="164" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B164" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C164" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D164" t="s">
         <v>57</v>
@@ -16670,7 +16667,7 @@
         <v>858855</v>
       </c>
       <c r="F164" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="G164" t="s">
         <v>30</v>
@@ -16732,13 +16729,13 @@
     </row>
     <row r="165" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B165" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C165" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D165" t="s">
         <v>28</v>
@@ -16747,7 +16744,7 @@
         <v>841737</v>
       </c>
       <c r="F165" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G165" t="s">
         <v>30</v>
@@ -16809,13 +16806,13 @@
     </row>
     <row r="166" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B166" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C166" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D166" t="s">
         <v>28</v>
@@ -16824,7 +16821,7 @@
         <v>856757</v>
       </c>
       <c r="F166" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="G166" t="s">
         <v>30</v>
@@ -16886,13 +16883,13 @@
     </row>
     <row r="167" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B167" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C167" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D167" t="s">
         <v>57</v>
@@ -16901,7 +16898,7 @@
         <v>815043</v>
       </c>
       <c r="F167" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G167" t="s">
         <v>30</v>
@@ -16963,13 +16960,13 @@
     </row>
     <row r="168" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B168" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C168" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D168" t="s">
         <v>57</v>
@@ -16978,7 +16975,7 @@
         <v>850193</v>
       </c>
       <c r="F168" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="G168" t="s">
         <v>30</v>
@@ -17040,13 +17037,13 @@
     </row>
     <row r="169" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B169" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C169" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D169" t="s">
         <v>28</v>
@@ -17055,7 +17052,7 @@
         <v>844364</v>
       </c>
       <c r="F169" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G169" t="s">
         <v>30</v>
@@ -17117,13 +17114,13 @@
     </row>
     <row r="170" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B170" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C170" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D170" t="s">
         <v>28</v>
@@ -17132,7 +17129,7 @@
         <v>845805</v>
       </c>
       <c r="F170" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G170" t="s">
         <v>30</v>
@@ -17194,13 +17191,13 @@
     </row>
     <row r="171" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B171" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C171" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D171" t="s">
         <v>57</v>
@@ -17209,7 +17206,7 @@
         <v>852880</v>
       </c>
       <c r="F171" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G171" t="s">
         <v>30</v>
@@ -17235,7 +17232,7 @@
       <c r="N171">
         <v>86.067999999999998</v>
       </c>
-      <c r="O171" s="3">
+      <c r="O171" s="2">
         <v>0.75</v>
       </c>
       <c r="P171">
@@ -17262,7 +17259,7 @@
       <c r="W171">
         <v>1</v>
       </c>
-      <c r="X171" s="3">
+      <c r="X171" s="2">
         <v>3.75</v>
       </c>
       <c r="Y171" t="s">
@@ -17271,13 +17268,13 @@
     </row>
     <row r="172" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B172" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C172" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D172" t="s">
         <v>28</v>
@@ -17286,7 +17283,7 @@
         <v>858117</v>
       </c>
       <c r="F172" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G172" t="s">
         <v>30</v>
@@ -17348,13 +17345,13 @@
     </row>
     <row r="173" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B173" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C173" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D173" t="s">
         <v>28</v>
@@ -17363,7 +17360,7 @@
         <v>856752</v>
       </c>
       <c r="F173" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G173" t="s">
         <v>30</v>
@@ -17425,13 +17422,13 @@
     </row>
     <row r="174" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B174" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C174" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D174" t="s">
         <v>28</v>
@@ -17499,13 +17496,13 @@
     </row>
     <row r="175" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B175" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C175" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D175" t="s">
         <v>57</v>
@@ -17514,7 +17511,7 @@
         <v>844375</v>
       </c>
       <c r="F175" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G175" t="s">
         <v>30</v>
@@ -17576,13 +17573,13 @@
     </row>
     <row r="176" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B176" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C176" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D176" t="s">
         <v>57</v>
@@ -17591,7 +17588,7 @@
         <v>854438</v>
       </c>
       <c r="F176" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G176" t="s">
         <v>30</v>
@@ -17653,13 +17650,13 @@
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B177" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C177" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D177" t="s">
         <v>57</v>
@@ -17668,7 +17665,7 @@
         <v>854225</v>
       </c>
       <c r="F177" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G177" t="s">
         <v>30</v>
@@ -17730,13 +17727,13 @@
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B178" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C178" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D178" t="s">
         <v>28</v>
@@ -17745,7 +17742,7 @@
         <v>844366</v>
       </c>
       <c r="F178" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G178" t="s">
         <v>30</v>
@@ -17807,10 +17804,10 @@
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B179" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C179" t="s">
         <v>85</v>
@@ -17822,7 +17819,7 @@
         <v>843418</v>
       </c>
       <c r="F179" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G179" t="s">
         <v>30</v>
@@ -17884,13 +17881,13 @@
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B180" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C180" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D180" t="s">
         <v>28</v>
@@ -17899,7 +17896,7 @@
         <v>838646</v>
       </c>
       <c r="F180" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="G180" t="s">
         <v>30</v>
@@ -17961,13 +17958,13 @@
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B181" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C181" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D181" t="s">
         <v>28</v>
@@ -17976,7 +17973,7 @@
         <v>849503</v>
       </c>
       <c r="F181" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G181" t="s">
         <v>30</v>
@@ -18038,13 +18035,13 @@
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B182" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C182" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D182" t="s">
         <v>28</v>
@@ -18053,7 +18050,7 @@
         <v>849359</v>
       </c>
       <c r="F182" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G182" t="s">
         <v>30</v>
@@ -18115,13 +18112,13 @@
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B183" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C183" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D183" t="s">
         <v>28</v>
@@ -18130,7 +18127,7 @@
         <v>844454</v>
       </c>
       <c r="F183" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G183" t="s">
         <v>30</v>
@@ -18192,13 +18189,13 @@
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B184" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C184" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="D184" t="s">
         <v>28</v>
@@ -18207,7 +18204,7 @@
         <v>857657</v>
       </c>
       <c r="F184" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G184" t="s">
         <v>30</v>
@@ -18257,13 +18254,13 @@
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B185" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C185" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D185" t="s">
         <v>28</v>
@@ -18272,7 +18269,7 @@
         <v>852838</v>
       </c>
       <c r="F185" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G185" t="s">
         <v>30</v>
@@ -18322,13 +18319,13 @@
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B186" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C186" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D186" t="s">
         <v>28</v>
@@ -18337,7 +18334,7 @@
         <v>845512</v>
       </c>
       <c r="F186" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="G186" t="s">
         <v>30</v>
@@ -18399,13 +18396,13 @@
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B187" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C187" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D187" t="s">
         <v>28</v>
@@ -18414,7 +18411,7 @@
         <v>836345</v>
       </c>
       <c r="F187" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G187" t="s">
         <v>30</v>
@@ -18476,13 +18473,13 @@
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B188" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C188" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D188" t="s">
         <v>28</v>
@@ -18491,7 +18488,7 @@
         <v>852876</v>
       </c>
       <c r="F188" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G188" t="s">
         <v>30</v>
@@ -18553,13 +18550,13 @@
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B189" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C189" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D189" t="s">
         <v>28</v>
@@ -18568,7 +18565,7 @@
         <v>839112</v>
       </c>
       <c r="F189" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G189" t="s">
         <v>30</v>
@@ -18630,13 +18627,13 @@
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B190" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C190" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D190" t="s">
         <v>28</v>
@@ -18645,7 +18642,7 @@
         <v>846331</v>
       </c>
       <c r="F190" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G190" t="s">
         <v>30</v>
@@ -18695,13 +18692,13 @@
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B191" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C191" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D191" t="s">
         <v>57</v>
@@ -18710,7 +18707,7 @@
         <v>842678</v>
       </c>
       <c r="F191" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G191" t="s">
         <v>30</v>
@@ -18766,13 +18763,13 @@
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B192" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C192" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D192" t="s">
         <v>57</v>
@@ -18781,7 +18778,7 @@
         <v>843437</v>
       </c>
       <c r="F192" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G192" t="s">
         <v>30</v>
@@ -18843,13 +18840,13 @@
     </row>
     <row r="193" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B193" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C193" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D193" t="s">
         <v>28</v>
@@ -18858,7 +18855,7 @@
         <v>857962</v>
       </c>
       <c r="F193" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G193" t="s">
         <v>30</v>
@@ -18920,13 +18917,13 @@
     </row>
     <row r="194" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B194" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C194" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D194" t="s">
         <v>57</v>
@@ -18935,7 +18932,7 @@
         <v>840346</v>
       </c>
       <c r="F194" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G194" t="s">
         <v>30</v>
@@ -18997,13 +18994,13 @@
     </row>
     <row r="195" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B195" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C195" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D195" t="s">
         <v>28</v>
@@ -19012,7 +19009,7 @@
         <v>845260</v>
       </c>
       <c r="F195" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G195" t="s">
         <v>30</v>
@@ -19071,13 +19068,13 @@
     </row>
     <row r="196" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B196" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C196" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D196" t="s">
         <v>28</v>
@@ -19086,7 +19083,7 @@
         <v>854728</v>
       </c>
       <c r="F196" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="G196" t="s">
         <v>30</v>
@@ -19148,13 +19145,13 @@
     </row>
     <row r="197" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B197" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C197" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D197" t="s">
         <v>28</v>
@@ -19163,7 +19160,7 @@
         <v>848355</v>
       </c>
       <c r="F197" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G197" t="s">
         <v>30</v>
@@ -19225,13 +19222,13 @@
     </row>
     <row r="198" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B198" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C198" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D198" t="s">
         <v>28</v>
@@ -19240,7 +19237,7 @@
         <v>830359</v>
       </c>
       <c r="F198" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G198" t="s">
         <v>30</v>
@@ -19302,13 +19299,13 @@
     </row>
     <row r="199" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B199" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C199" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D199" t="s">
         <v>57</v>
@@ -19317,7 +19314,7 @@
         <v>851753</v>
       </c>
       <c r="F199" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G199" t="s">
         <v>30</v>
@@ -19379,10 +19376,10 @@
     </row>
     <row r="200" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B200" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C200" t="s">
         <v>34</v>
@@ -19394,7 +19391,7 @@
         <v>844864</v>
       </c>
       <c r="F200" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G200" t="s">
         <v>30</v>
@@ -19456,13 +19453,13 @@
     </row>
     <row r="201" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B201" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C201" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D201" t="s">
         <v>28</v>
@@ -19471,7 +19468,7 @@
         <v>843448</v>
       </c>
       <c r="F201" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="G201" t="s">
         <v>30</v>
@@ -19533,13 +19530,13 @@
     </row>
     <row r="202" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B202" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C202" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D202" t="s">
         <v>28</v>
@@ -19548,7 +19545,7 @@
         <v>837550</v>
       </c>
       <c r="F202" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G202" t="s">
         <v>30</v>
@@ -19610,13 +19607,13 @@
     </row>
     <row r="203" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B203" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C203" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D203" t="s">
         <v>57</v>
@@ -19625,7 +19622,7 @@
         <v>841447</v>
       </c>
       <c r="F203" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G203" t="s">
         <v>30</v>
@@ -19687,13 +19684,13 @@
     </row>
     <row r="204" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B204" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C204" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D204" t="s">
         <v>57</v>
@@ -19702,7 +19699,7 @@
         <v>844570</v>
       </c>
       <c r="F204" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G204" t="s">
         <v>30</v>
@@ -19764,13 +19761,13 @@
     </row>
     <row r="205" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B205" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C205" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D205" t="s">
         <v>28</v>
@@ -19779,7 +19776,7 @@
         <v>845603</v>
       </c>
       <c r="F205" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="G205" t="s">
         <v>30</v>
@@ -19841,13 +19838,13 @@
     </row>
     <row r="206" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B206" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C206" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D206" t="s">
         <v>28</v>
@@ -19856,7 +19853,7 @@
         <v>844640</v>
       </c>
       <c r="F206" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G206" t="s">
         <v>30</v>
@@ -19918,13 +19915,13 @@
     </row>
     <row r="207" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B207" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C207" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D207" t="s">
         <v>28</v>
@@ -19933,7 +19930,7 @@
         <v>851731</v>
       </c>
       <c r="F207" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G207" t="s">
         <v>30</v>
@@ -19989,13 +19986,13 @@
     </row>
     <row r="208" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B208" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C208" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D208" t="s">
         <v>28</v>
@@ -20004,7 +20001,7 @@
         <v>856216</v>
       </c>
       <c r="F208" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G208" t="s">
         <v>30</v>
@@ -20054,13 +20051,13 @@
     </row>
     <row r="209" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B209" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C209" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D209" t="s">
         <v>28</v>
@@ -20069,7 +20066,7 @@
         <v>829085</v>
       </c>
       <c r="F209" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G209" t="s">
         <v>30</v>
@@ -20083,7 +20080,7 @@
       <c r="J209">
         <v>45621.792000000001</v>
       </c>
-      <c r="K209" s="3">
+      <c r="K209" s="2">
         <v>0.5</v>
       </c>
       <c r="L209">
@@ -20122,7 +20119,7 @@
       <c r="W209">
         <v>1</v>
       </c>
-      <c r="X209" s="3">
+      <c r="X209" s="2">
         <v>2.5</v>
       </c>
       <c r="Y209" t="s">
@@ -20131,13 +20128,13 @@
     </row>
     <row r="210" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B210" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C210" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D210" t="s">
         <v>57</v>
@@ -20146,7 +20143,7 @@
         <v>830358</v>
       </c>
       <c r="F210" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G210" t="s">
         <v>30</v>
@@ -20208,13 +20205,13 @@
     </row>
     <row r="211" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B211" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C211" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D211" t="s">
         <v>57</v>
@@ -20223,7 +20220,7 @@
         <v>854884</v>
       </c>
       <c r="F211" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="G211" t="s">
         <v>30</v>
@@ -20285,13 +20282,13 @@
     </row>
     <row r="212" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B212" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C212" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D212" t="s">
         <v>57</v>
@@ -20300,7 +20297,7 @@
         <v>855039</v>
       </c>
       <c r="F212" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G212" t="s">
         <v>30</v>
@@ -20362,13 +20359,13 @@
     </row>
     <row r="213" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B213" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C213" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D213" t="s">
         <v>28</v>
@@ -20377,7 +20374,7 @@
         <v>839926</v>
       </c>
       <c r="F213" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G213" t="s">
         <v>30</v>
@@ -20439,13 +20436,13 @@
     </row>
     <row r="214" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B214" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C214" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D214" t="s">
         <v>57</v>
@@ -20454,7 +20451,7 @@
         <v>857416</v>
       </c>
       <c r="F214" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G214" t="s">
         <v>30</v>
@@ -20516,13 +20513,13 @@
     </row>
     <row r="215" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B215" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C215" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D215" t="s">
         <v>28</v>
@@ -20531,7 +20528,7 @@
         <v>838311</v>
       </c>
       <c r="F215" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G215" t="s">
         <v>30</v>
@@ -20593,13 +20590,13 @@
     </row>
     <row r="216" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B216" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C216" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D216" t="s">
         <v>28</v>
@@ -20608,7 +20605,7 @@
         <v>856061</v>
       </c>
       <c r="F216" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -20664,13 +20661,13 @@
     </row>
     <row r="217" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B217" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C217" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D217" t="s">
         <v>57</v>
@@ -20679,7 +20676,7 @@
         <v>854049</v>
       </c>
       <c r="F217" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G217" t="s">
         <v>30</v>
@@ -20741,13 +20738,13 @@
     </row>
     <row r="218" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B218" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C218" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D218" t="s">
         <v>28</v>
@@ -20756,7 +20753,7 @@
         <v>852884</v>
       </c>
       <c r="F218" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G218" t="s">
         <v>30</v>
@@ -20812,13 +20809,13 @@
     </row>
     <row r="219" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B219" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C219" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D219" t="s">
         <v>57</v>
@@ -20827,7 +20824,7 @@
         <v>849541</v>
       </c>
       <c r="F219" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G219" t="s">
         <v>30</v>
@@ -20889,13 +20886,13 @@
     </row>
     <row r="220" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B220" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C220" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D220" t="s">
         <v>28</v>
@@ -20904,7 +20901,7 @@
         <v>846064</v>
       </c>
       <c r="F220" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G220" t="s">
         <v>30</v>
@@ -20954,13 +20951,13 @@
     </row>
     <row r="221" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B221" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C221" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D221" t="s">
         <v>28</v>
@@ -20969,7 +20966,7 @@
         <v>852357</v>
       </c>
       <c r="F221" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="G221" t="s">
         <v>30</v>
@@ -21031,13 +21028,13 @@
     </row>
     <row r="222" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B222" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C222" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D222" t="s">
         <v>28</v>
@@ -21046,7 +21043,7 @@
         <v>1007331</v>
       </c>
       <c r="F222" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G222" t="s">
         <v>30</v>
@@ -21108,13 +21105,13 @@
     </row>
     <row r="223" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B223" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C223" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D223" t="s">
         <v>28</v>
@@ -21123,7 +21120,7 @@
         <v>1008832</v>
       </c>
       <c r="F223" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G223" t="s">
         <v>30</v>
@@ -21185,13 +21182,13 @@
     </row>
     <row r="224" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B224" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C224" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D224" t="s">
         <v>28</v>
@@ -21200,7 +21197,7 @@
         <v>1007328</v>
       </c>
       <c r="F224" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G224" t="s">
         <v>30</v>
@@ -21262,13 +21259,13 @@
     </row>
     <row r="225" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B225" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C225" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D225" t="s">
         <v>28</v>
@@ -21277,7 +21274,7 @@
         <v>997072</v>
       </c>
       <c r="F225" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G225" t="s">
         <v>30</v>
@@ -21339,13 +21336,13 @@
     </row>
     <row r="226" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B226" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C226" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D226" t="s">
         <v>28</v>
@@ -21354,7 +21351,7 @@
         <v>846426</v>
       </c>
       <c r="F226" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="G226" t="s">
         <v>30</v>
@@ -21416,13 +21413,13 @@
     </row>
     <row r="227" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B227" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C227" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D227" t="s">
         <v>57</v>
@@ -21431,7 +21428,7 @@
         <v>844360</v>
       </c>
       <c r="F227" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G227" t="s">
         <v>30</v>
@@ -21493,13 +21490,13 @@
     </row>
     <row r="228" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B228" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C228" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D228" t="s">
         <v>57</v>
@@ -21508,7 +21505,7 @@
         <v>852882</v>
       </c>
       <c r="F228" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G228" t="s">
         <v>30</v>
@@ -21570,13 +21567,13 @@
     </row>
     <row r="229" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B229" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C229" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D229" t="s">
         <v>28</v>
@@ -21585,7 +21582,7 @@
         <v>838348</v>
       </c>
       <c r="F229" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="G229" t="s">
         <v>30</v>
@@ -21647,13 +21644,13 @@
     </row>
     <row r="230" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B230" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C230" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D230" t="s">
         <v>57</v>
@@ -21662,7 +21659,7 @@
         <v>849827</v>
       </c>
       <c r="F230" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G230" t="s">
         <v>30</v>
@@ -21724,13 +21721,13 @@
     </row>
     <row r="231" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B231" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C231" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D231" t="s">
         <v>28</v>
@@ -21739,7 +21736,7 @@
         <v>831433</v>
       </c>
       <c r="F231" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G231" t="s">
         <v>30</v>
@@ -21801,13 +21798,13 @@
     </row>
     <row r="232" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B232" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C232" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D232" t="s">
         <v>57</v>
@@ -21816,7 +21813,7 @@
         <v>859230</v>
       </c>
       <c r="F232" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G232" t="s">
         <v>30</v>
@@ -21878,13 +21875,13 @@
     </row>
     <row r="233" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B233" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C233" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D233" t="s">
         <v>57</v>
@@ -21893,7 +21890,7 @@
         <v>846097</v>
       </c>
       <c r="F233" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G233" t="s">
         <v>30</v>
@@ -21955,13 +21952,13 @@
     </row>
     <row r="234" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B234" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C234" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D234" t="s">
         <v>28</v>
@@ -21970,7 +21967,7 @@
         <v>837157</v>
       </c>
       <c r="F234" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G234" t="s">
         <v>30</v>
@@ -22032,13 +22029,13 @@
     </row>
     <row r="235" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B235" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C235" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D235" t="s">
         <v>28</v>
@@ -22047,7 +22044,7 @@
         <v>857949</v>
       </c>
       <c r="F235" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="G235" t="s">
         <v>30</v>
@@ -22109,13 +22106,13 @@
     </row>
     <row r="236" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B236" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C236" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D236" t="s">
         <v>57</v>
@@ -22124,7 +22121,7 @@
         <v>858172</v>
       </c>
       <c r="F236" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G236" t="s">
         <v>30</v>
@@ -22186,13 +22183,13 @@
     </row>
     <row r="237" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B237" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C237" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D237" t="s">
         <v>57</v>
@@ -22201,7 +22198,7 @@
         <v>848937</v>
       </c>
       <c r="F237" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G237" t="s">
         <v>30</v>
@@ -22263,13 +22260,13 @@
     </row>
     <row r="238" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B238" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C238" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D238" t="s">
         <v>57</v>
@@ -22278,7 +22275,7 @@
         <v>843458</v>
       </c>
       <c r="F238" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G238" t="s">
         <v>30</v>
@@ -22340,13 +22337,13 @@
     </row>
     <row r="239" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B239" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C239" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D239" t="s">
         <v>28</v>
@@ -22355,7 +22352,7 @@
         <v>841434</v>
       </c>
       <c r="F239" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G239" t="s">
         <v>30</v>
@@ -22417,13 +22414,13 @@
     </row>
     <row r="240" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B240" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="C240" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D240" t="s">
         <v>28</v>
@@ -22432,7 +22429,7 @@
         <v>836364</v>
       </c>
       <c r="F240" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G240" t="s">
         <v>30</v>
@@ -22494,13 +22491,13 @@
     </row>
     <row r="241" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B241" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C241" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D241" t="s">
         <v>28</v>
@@ -22509,7 +22506,7 @@
         <v>852891</v>
       </c>
       <c r="F241" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G241" t="s">
         <v>30</v>
@@ -22571,13 +22568,13 @@
     </row>
     <row r="242" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B242" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C242" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D242" t="s">
         <v>28</v>
@@ -22586,7 +22583,7 @@
         <v>832510</v>
       </c>
       <c r="F242" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G242" t="s">
         <v>30</v>
@@ -22648,13 +22645,13 @@
     </row>
     <row r="243" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B243" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C243" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D243" t="s">
         <v>28</v>
@@ -22663,7 +22660,7 @@
         <v>832327</v>
       </c>
       <c r="F243" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G243" t="s">
         <v>30</v>
@@ -22725,13 +22722,13 @@
     </row>
     <row r="244" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B244" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C244" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D244" t="s">
         <v>57</v>
@@ -22740,7 +22737,7 @@
         <v>833807</v>
       </c>
       <c r="F244" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G244" t="s">
         <v>30</v>
@@ -22802,13 +22799,13 @@
     </row>
     <row r="245" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B245" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C245" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D245" t="s">
         <v>28</v>
@@ -22817,7 +22814,7 @@
         <v>987317</v>
       </c>
       <c r="F245" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G245" t="s">
         <v>30</v>
@@ -22876,13 +22873,13 @@
     </row>
     <row r="246" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B246" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C246" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D246" t="s">
         <v>57</v>
@@ -22891,7 +22888,7 @@
         <v>826521</v>
       </c>
       <c r="F246" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G246" t="s">
         <v>30</v>
@@ -22953,13 +22950,13 @@
     </row>
     <row r="247" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B247" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C247" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D247" t="s">
         <v>57</v>
@@ -22968,7 +22965,7 @@
         <v>843224</v>
       </c>
       <c r="F247" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G247" t="s">
         <v>30</v>
@@ -23030,13 +23027,13 @@
     </row>
     <row r="248" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B248" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C248" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D248" t="s">
         <v>57</v>
@@ -23045,7 +23042,7 @@
         <v>840365</v>
       </c>
       <c r="F248" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G248" t="s">
         <v>30</v>
@@ -23107,13 +23104,13 @@
     </row>
     <row r="249" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B249" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C249" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D249" t="s">
         <v>57</v>
@@ -23122,7 +23119,7 @@
         <v>842975</v>
       </c>
       <c r="F249" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="G249" t="s">
         <v>30</v>
@@ -23184,13 +23181,13 @@
     </row>
     <row r="250" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B250" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C250" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D250" t="s">
         <v>28</v>
@@ -23199,7 +23196,7 @@
         <v>849792</v>
       </c>
       <c r="F250" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G250" t="s">
         <v>30</v>
@@ -23258,13 +23255,13 @@
     </row>
     <row r="251" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B251" t="s">
         <v>85</v>
       </c>
       <c r="C251" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D251" t="s">
         <v>57</v>
@@ -23273,7 +23270,7 @@
         <v>845860</v>
       </c>
       <c r="F251" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="G251" t="s">
         <v>30</v>
@@ -23335,13 +23332,13 @@
     </row>
     <row r="252" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B252" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C252" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D252" t="s">
         <v>28</v>
@@ -23350,7 +23347,7 @@
         <v>857790</v>
       </c>
       <c r="F252" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="G252" t="s">
         <v>30</v>
@@ -23412,13 +23409,13 @@
     </row>
     <row r="253" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B253" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C253" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D253" t="s">
         <v>28</v>
@@ -23427,7 +23424,7 @@
         <v>840373</v>
       </c>
       <c r="F253" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="G253" t="s">
         <v>30</v>
@@ -23489,13 +23486,13 @@
     </row>
     <row r="254" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B254" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C254" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D254" t="s">
         <v>28</v>
@@ -23504,7 +23501,7 @@
         <v>852852</v>
       </c>
       <c r="F254" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G254" t="s">
         <v>30</v>
@@ -23566,13 +23563,13 @@
     </row>
     <row r="255" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B255" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C255" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D255" t="s">
         <v>28</v>
@@ -23581,7 +23578,7 @@
         <v>854447</v>
       </c>
       <c r="F255" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G255" t="s">
         <v>30</v>
@@ -23643,13 +23640,13 @@
     </row>
     <row r="256" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B256" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C256" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D256" t="s">
         <v>28</v>
@@ -23658,7 +23655,7 @@
         <v>848702</v>
       </c>
       <c r="F256" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G256" t="s">
         <v>30</v>
@@ -23720,13 +23717,13 @@
     </row>
     <row r="257" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B257" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C257" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D257" t="s">
         <v>57</v>
@@ -23735,7 +23732,7 @@
         <v>840363</v>
       </c>
       <c r="F257" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G257" t="s">
         <v>30</v>
@@ -23797,13 +23794,13 @@
     </row>
     <row r="258" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B258" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C258" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D258" t="s">
         <v>28</v>
@@ -23812,7 +23809,7 @@
         <v>841437</v>
       </c>
       <c r="F258" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G258" t="s">
         <v>30</v>
@@ -23874,13 +23871,13 @@
     </row>
     <row r="259" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B259" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C259" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D259" t="s">
         <v>28</v>
@@ -23889,7 +23886,7 @@
         <v>848699</v>
       </c>
       <c r="F259" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="G259" t="s">
         <v>30</v>
@@ -23939,10 +23936,10 @@
       <c r="V259">
         <v>0</v>
       </c>
-      <c r="W259" s="3">
-        <v>1</v>
-      </c>
-      <c r="X259" s="3">
+      <c r="W259" s="2">
+        <v>1</v>
+      </c>
+      <c r="X259" s="2">
         <v>3</v>
       </c>
       <c r="Y259" t="s">
@@ -23951,13 +23948,13 @@
     </row>
     <row r="260" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B260" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C260" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D260" t="s">
         <v>57</v>
@@ -23966,7 +23963,7 @@
         <v>822400</v>
       </c>
       <c r="F260" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="G260" t="s">
         <v>30</v>
@@ -24028,13 +24025,13 @@
     </row>
     <row r="261" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B261" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C261" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D261" t="s">
         <v>28</v>
@@ -24043,7 +24040,7 @@
         <v>845319</v>
       </c>
       <c r="F261" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G261" t="s">
         <v>30</v>
@@ -24105,13 +24102,13 @@
     </row>
     <row r="262" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B262" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C262" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D262" t="s">
         <v>57</v>
@@ -24120,7 +24117,7 @@
         <v>829522</v>
       </c>
       <c r="F262" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G262" t="s">
         <v>30</v>
@@ -24182,13 +24179,13 @@
     </row>
     <row r="263" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B263" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C263" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D263" t="s">
         <v>28</v>
@@ -24197,7 +24194,7 @@
         <v>849831</v>
       </c>
       <c r="F263" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G263" t="s">
         <v>30</v>
@@ -24259,13 +24256,13 @@
     </row>
     <row r="264" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B264" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C264" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D264" t="s">
         <v>28</v>
@@ -24274,7 +24271,7 @@
         <v>855910</v>
       </c>
       <c r="F264" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="G264" t="s">
         <v>30</v>
@@ -24324,13 +24321,13 @@
     </row>
     <row r="265" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B265" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C265" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D265" t="s">
         <v>28</v>
@@ -24339,7 +24336,7 @@
         <v>856853</v>
       </c>
       <c r="F265" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="G265" t="s">
         <v>30</v>
@@ -24401,13 +24398,13 @@
     </row>
     <row r="266" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B266" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C266" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D266" t="s">
         <v>28</v>
@@ -24416,7 +24413,7 @@
         <v>1006876</v>
       </c>
       <c r="F266" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G266" t="s">
         <v>30</v>
@@ -24478,13 +24475,13 @@
     </row>
     <row r="267" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B267" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C267" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D267" t="s">
         <v>28</v>
@@ -24493,7 +24490,7 @@
         <v>848195</v>
       </c>
       <c r="F267" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G267" t="s">
         <v>30</v>
@@ -24552,13 +24549,13 @@
     </row>
     <row r="268" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B268" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C268" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="D268" t="s">
         <v>28</v>
@@ -24567,7 +24564,7 @@
         <v>1007329</v>
       </c>
       <c r="F268" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G268" t="s">
         <v>30</v>
@@ -24629,10 +24626,10 @@
     </row>
     <row r="269" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B269" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C269" t="s">
         <v>85</v>
@@ -24644,7 +24641,7 @@
         <v>858235</v>
       </c>
       <c r="F269" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G269" t="s">
         <v>30</v>
@@ -24706,13 +24703,13 @@
     </row>
     <row r="270" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B270" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C270" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D270" t="s">
         <v>57</v>
@@ -24721,7 +24718,7 @@
         <v>850183</v>
       </c>
       <c r="F270" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G270" t="s">
         <v>30</v>
@@ -24783,13 +24780,13 @@
     </row>
     <row r="271" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B271" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C271" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D271" t="s">
         <v>57</v>
@@ -24798,7 +24795,7 @@
         <v>836179</v>
       </c>
       <c r="F271" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G271" t="s">
         <v>30</v>
@@ -24848,10 +24845,10 @@
     </row>
     <row r="272" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B272" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C272" t="s">
         <v>77</v>
@@ -24863,7 +24860,7 @@
         <v>843227</v>
       </c>
       <c r="F272" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G272" t="s">
         <v>30</v>
@@ -24925,13 +24922,13 @@
     </row>
     <row r="273" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B273" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C273" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D273" t="s">
         <v>28</v>
@@ -24940,7 +24937,7 @@
         <v>838586</v>
       </c>
       <c r="F273" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="G273" t="s">
         <v>30</v>
@@ -25002,13 +24999,13 @@
     </row>
     <row r="274" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B274" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="C274" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="D274" t="s">
         <v>28</v>
@@ -25017,7 +25014,7 @@
         <v>829111</v>
       </c>
       <c r="F274" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="G274" t="s">
         <v>30</v>
@@ -25079,13 +25076,13 @@
     </row>
     <row r="275" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B275" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C275" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D275" t="s">
         <v>57</v>
@@ -25094,7 +25091,7 @@
         <v>830050</v>
       </c>
       <c r="F275" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G275" t="s">
         <v>30</v>
@@ -25150,13 +25147,13 @@
     </row>
     <row r="276" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B276" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C276" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D276" t="s">
         <v>57</v>
@@ -25165,7 +25162,7 @@
         <v>831191</v>
       </c>
       <c r="F276" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="G276" t="s">
         <v>30</v>
@@ -25227,13 +25224,13 @@
     </row>
     <row r="277" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B277" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C277" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D277" t="s">
         <v>28</v>
@@ -25242,7 +25239,7 @@
         <v>836991</v>
       </c>
       <c r="F277" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G277" t="s">
         <v>30</v>
@@ -25304,13 +25301,13 @@
     </row>
     <row r="278" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B278" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C278" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D278" t="s">
         <v>28</v>
@@ -25319,7 +25316,7 @@
         <v>839685</v>
       </c>
       <c r="F278" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="G278" t="s">
         <v>30</v>
@@ -25369,13 +25366,13 @@
     </row>
     <row r="279" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B279" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C279" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D279" t="s">
         <v>28</v>
@@ -25384,7 +25381,7 @@
         <v>849351</v>
       </c>
       <c r="F279" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G279" t="s">
         <v>30</v>
@@ -25410,7 +25407,7 @@
       <c r="N279">
         <v>1.7370000000000001</v>
       </c>
-      <c r="O279" s="3">
+      <c r="O279" s="2">
         <v>0.75</v>
       </c>
       <c r="P279">
@@ -25437,7 +25434,7 @@
       <c r="W279">
         <v>1</v>
       </c>
-      <c r="X279" s="3">
+      <c r="X279" s="2">
         <v>2.75</v>
       </c>
       <c r="Y279" t="s">
@@ -25446,13 +25443,13 @@
     </row>
     <row r="280" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B280" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C280" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D280" t="s">
         <v>28</v>
@@ -25461,7 +25458,7 @@
         <v>839145</v>
       </c>
       <c r="F280" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="G280" t="s">
         <v>30</v>
@@ -25487,7 +25484,7 @@
       <c r="N280">
         <v>64.605000000000004</v>
       </c>
-      <c r="O280" s="3">
+      <c r="O280" s="2">
         <v>0.75</v>
       </c>
       <c r="P280">
@@ -25514,7 +25511,7 @@
       <c r="W280">
         <v>0</v>
       </c>
-      <c r="X280" s="3">
+      <c r="X280" s="2">
         <v>1.75</v>
       </c>
       <c r="Y280" t="s">
@@ -25523,13 +25520,13 @@
     </row>
     <row r="281" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B281" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="C281" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D281" t="s">
         <v>57</v>
@@ -25538,7 +25535,7 @@
         <v>845752</v>
       </c>
       <c r="F281" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G281" t="s">
         <v>30</v>
@@ -25600,13 +25597,13 @@
     </row>
     <row r="282" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B282" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="C282" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D282" t="s">
         <v>28</v>
@@ -25615,7 +25612,7 @@
         <v>845210</v>
       </c>
       <c r="F282" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G282" t="s">
         <v>30</v>
@@ -25641,7 +25638,7 @@
       <c r="N282">
         <v>144.54900000000001</v>
       </c>
-      <c r="O282" s="3">
+      <c r="O282" s="2">
         <v>0.75</v>
       </c>
       <c r="P282">
@@ -25668,7 +25665,7 @@
       <c r="W282">
         <v>1</v>
       </c>
-      <c r="X282" s="3">
+      <c r="X282" s="2">
         <v>3.75</v>
       </c>
       <c r="Y282" t="s">
@@ -25677,13 +25674,13 @@
     </row>
     <row r="283" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B283" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C283" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D283" t="s">
         <v>28</v>
@@ -25692,7 +25689,7 @@
         <v>856927</v>
       </c>
       <c r="F283" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G283" t="s">
         <v>30</v>
@@ -25754,13 +25751,13 @@
     </row>
     <row r="284" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B284" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C284" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D284" t="s">
         <v>28</v>
@@ -25769,7 +25766,7 @@
         <v>847242</v>
       </c>
       <c r="F284" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="G284" t="s">
         <v>30</v>
@@ -25831,13 +25828,13 @@
     </row>
     <row r="285" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B285" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C285" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D285" t="s">
         <v>57</v>
@@ -25846,7 +25843,7 @@
         <v>848774</v>
       </c>
       <c r="F285" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G285" t="s">
         <v>30</v>
@@ -25872,7 +25869,7 @@
       <c r="N285">
         <v>91.828000000000003</v>
       </c>
-      <c r="O285" s="3">
+      <c r="O285" s="2">
         <v>0.75</v>
       </c>
       <c r="P285">
@@ -25899,7 +25896,7 @@
       <c r="W285">
         <v>1</v>
       </c>
-      <c r="X285" s="3">
+      <c r="X285" s="2">
         <v>3.75</v>
       </c>
       <c r="Y285" t="s">
@@ -25908,10 +25905,10 @@
     </row>
     <row r="286" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B286" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C286" t="s">
         <v>39</v>
@@ -25923,7 +25920,7 @@
         <v>856223</v>
       </c>
       <c r="F286" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="G286" t="s">
         <v>30</v>
@@ -25985,13 +25982,13 @@
     </row>
     <row r="287" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B287" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C287" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="D287" t="s">
         <v>28</v>
@@ -26000,7 +25997,7 @@
         <v>856230</v>
       </c>
       <c r="F287" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="G287" t="s">
         <v>30</v>
@@ -26062,13 +26059,13 @@
     </row>
     <row r="288" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B288" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C288" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D288" t="s">
         <v>28</v>
@@ -26077,7 +26074,7 @@
         <v>853655</v>
       </c>
       <c r="F288" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="G288" t="s">
         <v>30</v>
@@ -26139,13 +26136,13 @@
     </row>
     <row r="289" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B289" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C289" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D289" t="s">
         <v>28</v>
@@ -26154,7 +26151,7 @@
         <v>859507</v>
       </c>
       <c r="F289" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="G289" t="s">
         <v>30</v>
@@ -26216,13 +26213,13 @@
     </row>
     <row r="290" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="B290" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C290" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D290" t="s">
         <v>57</v>
@@ -26231,7 +26228,7 @@
         <v>860123</v>
       </c>
       <c r="F290" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="G290" t="s">
         <v>30</v>
@@ -26293,13 +26290,13 @@
     </row>
     <row r="291" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B291" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C291" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D291" t="s">
         <v>57</v>
@@ -26308,7 +26305,7 @@
         <v>861313</v>
       </c>
       <c r="F291" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="G291" t="s">
         <v>30</v>
@@ -26370,13 +26367,13 @@
     </row>
     <row r="292" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B292" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C292" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D292" t="s">
         <v>57</v>
@@ -26385,7 +26382,7 @@
         <v>862117</v>
       </c>
       <c r="F292" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="G292" t="s">
         <v>30</v>
@@ -26441,13 +26438,13 @@
     </row>
     <row r="293" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B293" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C293" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D293" t="s">
         <v>57</v>
@@ -26456,7 +26453,7 @@
         <v>865521</v>
       </c>
       <c r="F293" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G293" t="s">
         <v>30</v>
@@ -26518,13 +26515,13 @@
     </row>
     <row r="294" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B294" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C294" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D294" t="s">
         <v>57</v>
@@ -26533,7 +26530,7 @@
         <v>868854</v>
       </c>
       <c r="F294" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="G294" t="s">
         <v>30</v>
@@ -26595,13 +26592,13 @@
     </row>
     <row r="295" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B295" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C295" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D295" t="s">
         <v>57</v>
@@ -26610,7 +26607,7 @@
         <v>872170</v>
       </c>
       <c r="F295" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="G295" t="s">
         <v>30</v>
@@ -26672,13 +26669,13 @@
     </row>
     <row r="296" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B296" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C296" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D296" t="s">
         <v>57</v>
@@ -26687,7 +26684,7 @@
         <v>875624</v>
       </c>
       <c r="F296" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="G296" t="s">
         <v>30</v>
@@ -26749,13 +26746,13 @@
     </row>
     <row r="297" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B297" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C297" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D297" t="s">
         <v>57</v>
@@ -26764,7 +26761,7 @@
         <v>877330</v>
       </c>
       <c r="F297" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="G297" t="s">
         <v>30</v>
@@ -26814,13 +26811,13 @@
     </row>
     <row r="298" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B298" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C298" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D298" t="s">
         <v>57</v>
@@ -26829,7 +26826,7 @@
         <v>876875</v>
       </c>
       <c r="F298" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="G298" t="s">
         <v>30</v>
@@ -26891,13 +26888,13 @@
     </row>
     <row r="299" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B299" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C299" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D299" t="s">
         <v>57</v>
@@ -26906,7 +26903,7 @@
         <v>879584</v>
       </c>
       <c r="F299" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="G299" t="s">
         <v>30</v>
@@ -26965,13 +26962,13 @@
     </row>
     <row r="300" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B300" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C300" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D300" t="s">
         <v>57</v>
@@ -26980,7 +26977,7 @@
         <v>909221</v>
       </c>
       <c r="F300" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="G300" t="s">
         <v>30</v>
@@ -27039,13 +27036,13 @@
     </row>
     <row r="301" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B301" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="C301" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D301" t="s">
         <v>57</v>
@@ -27054,7 +27051,7 @@
         <v>910880</v>
       </c>
       <c r="F301" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="G301" t="s">
         <v>30</v>
@@ -27116,13 +27113,13 @@
     </row>
     <row r="302" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B302" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C302" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D302" t="s">
         <v>57</v>
@@ -27131,7 +27128,7 @@
         <v>911246</v>
       </c>
       <c r="F302" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="G302" t="s">
         <v>30</v>
@@ -27193,13 +27190,13 @@
     </row>
     <row r="303" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B303" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C303" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D303" t="s">
         <v>57</v>
@@ -27208,7 +27205,7 @@
         <v>912906</v>
       </c>
       <c r="F303" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="G303" t="s">
         <v>30</v>
@@ -27234,7 +27231,7 @@
       <c r="N303">
         <v>25.608000000000001</v>
       </c>
-      <c r="O303" s="3">
+      <c r="O303" s="2">
         <v>0.75</v>
       </c>
       <c r="P303">
@@ -27261,7 +27258,7 @@
       <c r="W303">
         <v>1</v>
       </c>
-      <c r="X303" s="3">
+      <c r="X303" s="2">
         <v>3.75</v>
       </c>
       <c r="Y303" t="s">
@@ -27270,22 +27267,22 @@
     </row>
     <row r="304" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B304" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C304" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D304" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E304">
         <v>919653</v>
       </c>
       <c r="F304" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="G304" t="s">
         <v>30</v>
@@ -27347,13 +27344,13 @@
     </row>
     <row r="305" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B305" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C305" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D305" t="s">
         <v>57</v>
@@ -27362,7 +27359,7 @@
         <v>920194</v>
       </c>
       <c r="F305" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="G305" t="s">
         <v>30</v>
@@ -27424,13 +27421,13 @@
     </row>
     <row r="306" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B306" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C306" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D306" t="s">
         <v>57</v>
@@ -27439,7 +27436,7 @@
         <v>920359</v>
       </c>
       <c r="F306" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="G306" t="s">
         <v>30</v>
@@ -27498,13 +27495,13 @@
     </row>
     <row r="307" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B307" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C307" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D307" t="s">
         <v>57</v>
@@ -27513,7 +27510,7 @@
         <v>921238</v>
       </c>
       <c r="F307" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="G307" t="s">
         <v>30</v>
@@ -27575,13 +27572,13 @@
     </row>
     <row r="308" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B308" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C308" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D308" t="s">
         <v>57</v>
@@ -27590,7 +27587,7 @@
         <v>920695</v>
       </c>
       <c r="F308" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="G308" t="s">
         <v>30</v>
@@ -27652,13 +27649,13 @@
     </row>
     <row r="309" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B309" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C309" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D309" t="s">
         <v>57</v>
@@ -27667,7 +27664,7 @@
         <v>959316</v>
       </c>
       <c r="F309" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="G309" t="s">
         <v>30</v>
@@ -27729,13 +27726,13 @@
     </row>
     <row r="310" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B310" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C310" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D310" t="s">
         <v>57</v>
@@ -27744,7 +27741,7 @@
         <v>921635</v>
       </c>
       <c r="F310" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="G310" t="s">
         <v>30</v>
@@ -27806,13 +27803,13 @@
     </row>
     <row r="311" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B311" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C311" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D311" t="s">
         <v>57</v>
@@ -27821,7 +27818,7 @@
         <v>924476</v>
       </c>
       <c r="F311" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="G311" t="s">
         <v>30</v>
@@ -27877,13 +27874,13 @@
     </row>
     <row r="312" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B312" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C312" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D312" t="s">
         <v>57</v>
@@ -27892,7 +27889,7 @@
         <v>926522</v>
       </c>
       <c r="F312" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="G312" t="s">
         <v>30</v>
@@ -27951,13 +27948,13 @@
     </row>
     <row r="313" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B313" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C313" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D313" t="s">
         <v>57</v>
@@ -28013,13 +28010,13 @@
     </row>
     <row r="314" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B314" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C314" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D314" t="s">
         <v>57</v>
@@ -28028,7 +28025,7 @@
         <v>931624</v>
       </c>
       <c r="F314" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="G314" t="s">
         <v>30</v>
@@ -28087,13 +28084,13 @@
     </row>
     <row r="315" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B315" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C315" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="D315" t="s">
         <v>57</v>
@@ -28102,7 +28099,7 @@
         <v>960866</v>
       </c>
       <c r="F315" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="G315" t="s">
         <v>30</v>
@@ -28164,13 +28161,13 @@
     </row>
     <row r="316" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B316" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C316" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="D316" t="s">
         <v>57</v>
@@ -28179,7 +28176,7 @@
         <v>960489</v>
       </c>
       <c r="F316" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="G316" t="s">
         <v>30</v>
@@ -28229,22 +28226,22 @@
     </row>
     <row r="317" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B317" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C317" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D317" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E317">
         <v>961607</v>
       </c>
       <c r="F317" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="G317" t="s">
         <v>30</v>
@@ -28306,13 +28303,13 @@
     </row>
     <row r="318" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B318" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C318" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="D318" t="s">
         <v>57</v>
@@ -28321,7 +28318,7 @@
         <v>962781</v>
       </c>
       <c r="F318" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="G318" t="s">
         <v>30</v>
@@ -28383,13 +28380,13 @@
     </row>
     <row r="319" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B319" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C319" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D319" t="s">
         <v>57</v>
@@ -28398,7 +28395,7 @@
         <v>964247</v>
       </c>
       <c r="F319" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G319" t="s">
         <v>30</v>
@@ -28460,13 +28457,13 @@
     </row>
     <row r="320" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B320" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C320" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="D320" t="s">
         <v>57</v>
@@ -28475,7 +28472,7 @@
         <v>965366</v>
       </c>
       <c r="F320" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="G320" t="s">
         <v>30</v>
@@ -28525,13 +28522,13 @@
     </row>
     <row r="321" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B321" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C321" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D321" t="s">
         <v>57</v>
@@ -28540,7 +28537,7 @@
         <v>965375</v>
       </c>
       <c r="F321" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="G321" t="s">
         <v>30</v>
@@ -28602,13 +28599,13 @@
     </row>
     <row r="322" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B322" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C322" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D322" t="s">
         <v>57</v>
@@ -28617,7 +28614,7 @@
         <v>965972</v>
       </c>
       <c r="F322" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="G322" t="s">
         <v>30</v>
@@ -28679,13 +28676,13 @@
     </row>
     <row r="323" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B323" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C323" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="D323" t="s">
         <v>57</v>
@@ -28694,7 +28691,7 @@
         <v>967847</v>
       </c>
       <c r="F323" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="G323" t="s">
         <v>30</v>
@@ -28756,13 +28753,13 @@
     </row>
     <row r="324" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B324" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C324" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D324" t="s">
         <v>57</v>
@@ -28771,7 +28768,7 @@
         <v>968263</v>
       </c>
       <c r="F324" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="G324" t="s">
         <v>30</v>
@@ -28833,13 +28830,13 @@
     </row>
     <row r="325" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B325" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C325" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="D325" t="s">
         <v>28</v>
@@ -28848,7 +28845,7 @@
         <v>993441</v>
       </c>
       <c r="F325" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G325" t="s">
         <v>30</v>
@@ -28874,7 +28871,7 @@
       <c r="N325">
         <v>102.509</v>
       </c>
-      <c r="O325" s="3">
+      <c r="O325" s="2">
         <v>0.25</v>
       </c>
       <c r="P325">
@@ -28901,7 +28898,7 @@
       <c r="W325">
         <v>0</v>
       </c>
-      <c r="X325" s="3">
+      <c r="X325" s="2">
         <v>2.25</v>
       </c>
       <c r="Y325" t="s">
@@ -28910,13 +28907,13 @@
     </row>
     <row r="326" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B326" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C326" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D326" t="s">
         <v>57</v>
@@ -28925,7 +28922,7 @@
         <v>972298</v>
       </c>
       <c r="F326" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G326" t="s">
         <v>30</v>
@@ -28987,13 +28984,13 @@
     </row>
     <row r="327" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B327" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C327" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="D327" t="s">
         <v>57</v>
@@ -29002,7 +28999,7 @@
         <v>1007369</v>
       </c>
       <c r="F327" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G327" t="s">
         <v>30</v>
@@ -29064,13 +29061,13 @@
     </row>
     <row r="328" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B328" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C328" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D328" t="s">
         <v>57</v>
@@ -29079,7 +29076,7 @@
         <v>974859</v>
       </c>
       <c r="F328" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="G328" t="s">
         <v>30</v>
@@ -29141,13 +29138,13 @@
     </row>
     <row r="329" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B329" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C329" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D329" t="s">
         <v>57</v>
@@ -29156,7 +29153,7 @@
         <v>973915</v>
       </c>
       <c r="F329" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="G329" t="s">
         <v>30</v>
@@ -29218,13 +29215,13 @@
     </row>
     <row r="330" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B330" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C330" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D330" t="s">
         <v>57</v>
@@ -29233,7 +29230,7 @@
         <v>973549</v>
       </c>
       <c r="F330" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G330" t="s">
         <v>30</v>
@@ -29295,22 +29292,22 @@
     </row>
     <row r="331" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B331" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C331" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D331" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E331">
         <v>973924</v>
       </c>
       <c r="F331" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="G331" t="s">
         <v>30</v>
@@ -29372,13 +29369,13 @@
     </row>
     <row r="332" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B332" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C332" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D332" t="s">
         <v>57</v>
@@ -29387,7 +29384,7 @@
         <v>973829</v>
       </c>
       <c r="F332" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G332" t="s">
         <v>30</v>
@@ -29449,13 +29446,13 @@
     </row>
     <row r="333" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B333" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C333" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D333" t="s">
         <v>57</v>
@@ -29464,7 +29461,7 @@
         <v>973994</v>
       </c>
       <c r="F333" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="G333" t="s">
         <v>30</v>
@@ -29526,13 +29523,13 @@
     </row>
     <row r="334" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B334" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C334" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D334" t="s">
         <v>57</v>
@@ -29541,7 +29538,7 @@
         <v>973997</v>
       </c>
       <c r="F334" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="G334" t="s">
         <v>30</v>
@@ -29603,22 +29600,22 @@
     </row>
     <row r="335" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B335" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C335" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="D335" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E335">
         <v>974708</v>
       </c>
       <c r="F335" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="G335" t="s">
         <v>30</v>
@@ -29668,13 +29665,13 @@
     </row>
     <row r="336" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B336" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C336" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D336" t="s">
         <v>57</v>
@@ -29683,7 +29680,7 @@
         <v>977726</v>
       </c>
       <c r="F336" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="G336" t="s">
         <v>30</v>
@@ -29739,13 +29736,13 @@
     </row>
     <row r="337" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B337" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C337" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="D337" t="s">
         <v>57</v>
@@ -29754,7 +29751,7 @@
         <v>1010724</v>
       </c>
       <c r="F337" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="G337" t="s">
         <v>30</v>
@@ -29816,13 +29813,13 @@
     </row>
     <row r="338" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B338" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C338" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D338" t="s">
         <v>57</v>
@@ -29831,7 +29828,7 @@
         <v>975215</v>
       </c>
       <c r="F338" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="G338" t="s">
         <v>30</v>
@@ -29893,13 +29890,13 @@
     </row>
     <row r="339" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B339" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C339" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D339" t="s">
         <v>57</v>
@@ -29908,7 +29905,7 @@
         <v>975683</v>
       </c>
       <c r="F339" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="G339" t="s">
         <v>30</v>
@@ -29964,13 +29961,13 @@
     </row>
     <row r="340" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B340" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C340" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="D340" t="s">
         <v>57</v>
@@ -29979,7 +29976,7 @@
         <v>975995</v>
       </c>
       <c r="F340" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="G340" t="s">
         <v>30</v>
@@ -30029,13 +30026,13 @@
     </row>
     <row r="341" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B341" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C341" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D341" t="s">
         <v>57</v>
@@ -30044,7 +30041,7 @@
         <v>977047</v>
       </c>
       <c r="F341" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="G341" t="s">
         <v>30</v>
@@ -30094,13 +30091,13 @@
     </row>
     <row r="342" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B342" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C342" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D342" t="s">
         <v>57</v>
@@ -30109,7 +30106,7 @@
         <v>977839</v>
       </c>
       <c r="F342" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="G342" t="s">
         <v>30</v>
@@ -30159,22 +30156,22 @@
     </row>
     <row r="343" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B343" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C343" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D343" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E343">
         <v>977687</v>
       </c>
       <c r="F343" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="G343" t="s">
         <v>30</v>
@@ -30224,13 +30221,13 @@
     </row>
     <row r="344" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B344" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C344" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="D344" t="s">
         <v>57</v>
@@ -30239,7 +30236,7 @@
         <v>978031</v>
       </c>
       <c r="F344" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="G344" t="s">
         <v>30</v>
@@ -30301,13 +30298,13 @@
     </row>
     <row r="345" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B345" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C345" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D345" t="s">
         <v>57</v>
@@ -30316,7 +30313,7 @@
         <v>997002</v>
       </c>
       <c r="F345" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G345" t="s">
         <v>30</v>
@@ -30366,13 +30363,13 @@
     </row>
     <row r="346" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B346" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="C346" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D346" t="s">
         <v>57</v>
@@ -30381,7 +30378,7 @@
         <v>980042</v>
       </c>
       <c r="F346" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="G346" t="s">
         <v>30</v>
@@ -30431,13 +30428,13 @@
     </row>
     <row r="347" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B347" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C347" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D347" t="s">
         <v>57</v>
@@ -30446,7 +30443,7 @@
         <v>978493</v>
       </c>
       <c r="F347" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="G347" t="s">
         <v>30</v>
@@ -30508,13 +30505,13 @@
     </row>
     <row r="348" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B348" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C348" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D348" t="s">
         <v>57</v>
@@ -30523,7 +30520,7 @@
         <v>978390</v>
       </c>
       <c r="F348" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="G348" t="s">
         <v>30</v>
@@ -30573,11 +30570,11 @@
       <c r="V348">
         <v>1.4E-2</v>
       </c>
-      <c r="W348">
-        <v>0</v>
-      </c>
-      <c r="X348">
-        <v>3</v>
+      <c r="W348" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="X348" s="2">
+        <v>3.5</v>
       </c>
       <c r="Y348" t="s">
         <v>41</v>
@@ -30585,22 +30582,22 @@
     </row>
     <row r="349" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B349" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C349" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D349" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E349">
         <v>979224</v>
       </c>
       <c r="F349" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="G349" t="s">
         <v>30</v>
@@ -30662,22 +30659,22 @@
     </row>
     <row r="350" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B350" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="C350" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D350" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E350">
         <v>980333</v>
       </c>
       <c r="F350" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="G350" t="s">
         <v>30</v>
@@ -30739,13 +30736,13 @@
     </row>
     <row r="351" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B351" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C351" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="D351" t="s">
         <v>57</v>
@@ -30754,7 +30751,7 @@
         <v>981596</v>
       </c>
       <c r="F351" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="G351" t="s">
         <v>30</v>
@@ -30816,22 +30813,22 @@
     </row>
     <row r="352" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B352" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C352" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="D352" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E352">
         <v>982163</v>
       </c>
       <c r="F352" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="G352" t="s">
         <v>30</v>
@@ -30893,13 +30890,13 @@
     </row>
     <row r="353" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B353" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="C353" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D353" t="s">
         <v>28</v>
@@ -30908,7 +30905,7 @@
         <v>987657</v>
       </c>
       <c r="F353" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="G353" t="s">
         <v>30</v>
@@ -30970,13 +30967,13 @@
     </row>
     <row r="354" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B354" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C354" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D354" t="s">
         <v>57</v>
@@ -30985,7 +30982,7 @@
         <v>1007543</v>
       </c>
       <c r="F354" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="G354" t="s">
         <v>30</v>
@@ -31035,13 +31032,13 @@
     </row>
     <row r="355" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B355" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C355" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="D355" t="s">
         <v>28</v>
@@ -31097,13 +31094,13 @@
     </row>
     <row r="356" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B356" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C356" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D356" t="s">
         <v>57</v>
@@ -31112,7 +31109,7 @@
         <v>1007401</v>
       </c>
       <c r="F356" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G356" t="s">
         <v>30</v>
@@ -31168,13 +31165,13 @@
     </row>
     <row r="357" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B357" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="C357" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D357" t="s">
         <v>28</v>
@@ -31183,7 +31180,7 @@
         <v>1006130</v>
       </c>
       <c r="F357" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="G357" t="s">
         <v>30</v>
@@ -31245,13 +31242,13 @@
     </row>
     <row r="358" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B358" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C358" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="D358" t="s">
         <v>28</v>
@@ -31260,7 +31257,7 @@
         <v>1007388</v>
       </c>
       <c r="F358" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="G358" t="s">
         <v>30</v>
@@ -31286,7 +31283,7 @@
       <c r="N358">
         <v>0.04</v>
       </c>
-      <c r="O358" s="3">
+      <c r="O358" s="2">
         <v>0.25</v>
       </c>
       <c r="P358">
@@ -31313,7 +31310,7 @@
       <c r="W358">
         <v>1</v>
       </c>
-      <c r="X358" s="3">
+      <c r="X358" s="2">
         <v>3.25</v>
       </c>
       <c r="Y358" t="s">
@@ -31321,7 +31318,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z358" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
